--- a/src/leetcode_problems.xlsx
+++ b/src/leetcode_problems.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/h0o00s6/work/leetcode/src/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{287B5DFB-5E85-204F-AA25-7BF912BA8EBB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8EDAB119-D580-1D4B-BA5B-4A40DD28CA19}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="34560" windowHeight="21580" activeTab="6" xr2:uid="{7C8CF537-9B1D-254F-B23F-05ED50214302}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="34560" windowHeight="21580" xr2:uid="{7C8CF537-9B1D-254F-B23F-05ED50214302}"/>
   </bookViews>
   <sheets>
     <sheet name="Graph" sheetId="1" r:id="rId1"/>
@@ -20,6 +20,11 @@
     <sheet name="Greedy" sheetId="5" r:id="rId5"/>
     <sheet name="2D Matrix" sheetId="6" r:id="rId6"/>
     <sheet name="Arrays and String" sheetId="7" r:id="rId7"/>
+    <sheet name="Tree" sheetId="8" r:id="rId8"/>
+    <sheet name="Google" sheetId="9" r:id="rId9"/>
+    <sheet name="Facebook" sheetId="10" r:id="rId10"/>
+    <sheet name="Netflix" sheetId="11" r:id="rId11"/>
+    <sheet name="Amazon" sheetId="12" r:id="rId12"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -42,7 +47,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1030" uniqueCount="355">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1427" uniqueCount="449">
   <si>
     <t>Problem Name</t>
   </si>
@@ -336,6 +341,9 @@
     </r>
   </si>
   <si>
+    <t>Dynamic Programming</t>
+  </si>
+  <si>
     <t>Merge k Sorted Lists</t>
   </si>
   <si>
@@ -1147,6 +1155,285 @@
   </si>
   <si>
     <t>Find the length of the longest substring that can be obtained by replacing at most k characters.</t>
+  </si>
+  <si>
+    <t>Delete Node in a BST</t>
+  </si>
+  <si>
+    <t>O(H)</t>
+  </si>
+  <si>
+    <t>Binary Tree Right Side View</t>
+  </si>
+  <si>
+    <t>O(N)</t>
+  </si>
+  <si>
+    <t>All Nodes Distance K in Binary Tree</t>
+  </si>
+  <si>
+    <t>Insert into a Binary Search Tree</t>
+  </si>
+  <si>
+    <t>Binary Tree Preorder Traversal</t>
+  </si>
+  <si>
+    <t>Binary Tree Postorder Traversal</t>
+  </si>
+  <si>
+    <t>House Robber III</t>
+  </si>
+  <si>
+    <t>Merge Two Binary Trees</t>
+  </si>
+  <si>
+    <t>Path Sum III</t>
+  </si>
+  <si>
+    <t>Range Sum of BST</t>
+  </si>
+  <si>
+    <t>Leaf-Similar Trees</t>
+  </si>
+  <si>
+    <t>Count Complete Tree Nodes</t>
+  </si>
+  <si>
+    <t>O(logN * logN)</t>
+  </si>
+  <si>
+    <t>O(N^2)</t>
+  </si>
+  <si>
+    <t>Populating Next Right Pointers in Each Node</t>
+  </si>
+  <si>
+    <t>Populating Next Right Pointers in Each Node II</t>
+  </si>
+  <si>
+    <t>Binary Search Tree to Greater Sum Tree</t>
+  </si>
+  <si>
+    <t>Construct Binary Search Tree from Preorder</t>
+  </si>
+  <si>
+    <t>Convert Sorted Array to Binary Search Tree</t>
+  </si>
+  <si>
+    <t>Inorder Successor in BST</t>
+  </si>
+  <si>
+    <t>Largest BST Subtree</t>
+  </si>
+  <si>
+    <t>LeetCode Number</t>
+  </si>
+  <si>
+    <t>Best Time Complexity</t>
+  </si>
+  <si>
+    <t>Lowest Common Ancestor of a Binary Tree</t>
+  </si>
+  <si>
+    <t>Binary Tree Maximum Path Sum</t>
+  </si>
+  <si>
+    <t>Construct Binary Tree from Preorder and Inorder</t>
+  </si>
+  <si>
+    <t>Invert Binary Tree</t>
+  </si>
+  <si>
+    <t>Diameter of Binary Tree</t>
+  </si>
+  <si>
+    <t>Serialize and Deserialize Binary Tree</t>
+  </si>
+  <si>
+    <t>Path Sum</t>
+  </si>
+  <si>
+    <t>Kth Smallest Element in a BST</t>
+  </si>
+  <si>
+    <t>O(H + k)</t>
+  </si>
+  <si>
+    <t>Same Tree</t>
+  </si>
+  <si>
+    <t>Tree Diameter</t>
+  </si>
+  <si>
+    <t>Find Duplicate Subtrees</t>
+  </si>
+  <si>
+    <t>Topic</t>
+  </si>
+  <si>
+    <t>Arrays</t>
+  </si>
+  <si>
+    <t>Two Sum</t>
+  </si>
+  <si>
+    <t>O(N log N)</t>
+  </si>
+  <si>
+    <t>Trapping Rain Water</t>
+  </si>
+  <si>
+    <t>Strings</t>
+  </si>
+  <si>
+    <t>Longest Substring Without Repeating Characters</t>
+  </si>
+  <si>
+    <t>Group Anagrams</t>
+  </si>
+  <si>
+    <t>O(N * k log k)</t>
+  </si>
+  <si>
+    <t>Linked Lists</t>
+  </si>
+  <si>
+    <t>Merge Two Sorted Lists</t>
+  </si>
+  <si>
+    <t>O(N log k)</t>
+  </si>
+  <si>
+    <t>Remove N-th Node From End of List</t>
+  </si>
+  <si>
+    <t>Copy List with Random Pointer</t>
+  </si>
+  <si>
+    <t>Trees</t>
+  </si>
+  <si>
+    <t>Maximum Depth of Binary Tree</t>
+  </si>
+  <si>
+    <t>Graphs</t>
+  </si>
+  <si>
+    <t>Course Schedule</t>
+  </si>
+  <si>
+    <t>O(V + E)</t>
+  </si>
+  <si>
+    <t>Clone Graph</t>
+  </si>
+  <si>
+    <t>Graph Valid Tree</t>
+  </si>
+  <si>
+    <t>Network Delay Time</t>
+  </si>
+  <si>
+    <t>O(V + E log V)</t>
+  </si>
+  <si>
+    <t>O(N * amount)</t>
+  </si>
+  <si>
+    <t>Partition Equal Subset Sum</t>
+  </si>
+  <si>
+    <t>O(N * sum)</t>
+  </si>
+  <si>
+    <t>Target Sum</t>
+  </si>
+  <si>
+    <t>O(N * M)</t>
+  </si>
+  <si>
+    <t>Heap</t>
+  </si>
+  <si>
+    <t>O(log N) per insertion</t>
+  </si>
+  <si>
+    <t>Greedy</t>
+  </si>
+  <si>
+    <t>Non-overlapping Intervals</t>
+  </si>
+  <si>
+    <t>Task Scheduler</t>
+  </si>
+  <si>
+    <t>Alien Dictionary</t>
+  </si>
+  <si>
+    <t>Palindrome Linked List</t>
+  </si>
+  <si>
+    <t>Daily Temperatures</t>
+  </si>
+  <si>
+    <t>Subarray Sum Equals K</t>
+  </si>
+  <si>
+    <t>Random Pick with Weight</t>
+  </si>
+  <si>
+    <t>K Closest Points to Origin</t>
+  </si>
+  <si>
+    <t>LRU Cache</t>
+  </si>
+  <si>
+    <t>O(1) for get and put</t>
+  </si>
+  <si>
+    <t>Maximum Size Subarray Sum Equals k</t>
+  </si>
+  <si>
+    <t>O(M * N * 4^L)</t>
+  </si>
+  <si>
+    <t>Add Two Numbers</t>
+  </si>
+  <si>
+    <t>Valid Parentheses</t>
+  </si>
+  <si>
+    <t>3Sum</t>
+  </si>
+  <si>
+    <t>Intersection of Two Linked Lists</t>
+  </si>
+  <si>
+    <t>O(N + M)</t>
+  </si>
+  <si>
+    <t>Valid Sudoku</t>
+  </si>
+  <si>
+    <t>Rotate Image</t>
+  </si>
+  <si>
+    <t>Basic Calculator II</t>
+  </si>
+  <si>
+    <t>Design a Stack with Increment Operation</t>
+  </si>
+  <si>
+    <t>Generate Parentheses</t>
+  </si>
+  <si>
+    <t>O(2^N)</t>
+  </si>
+  <si>
+    <t>Letter Combinations of a Phone Number</t>
+  </si>
+  <si>
+    <t>O(4^N)</t>
   </si>
 </sst>
 </file>
@@ -1542,15 +1829,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{292B19E5-DA8E-9141-8777-62BE92ED20BF}">
   <dimension ref="A1:C71"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J20" sqref="J20"/>
+    <sheetView tabSelected="1" topLeftCell="A41" workbookViewId="0">
+      <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="66.6640625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="8.83203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="30.1640625" customWidth="1"/>
+    <col min="3" max="3" width="4.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.2">
@@ -2126,7 +2413,7 @@
       </c>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A53" t="s">
+      <c r="A53" s="2" t="s">
         <v>57</v>
       </c>
       <c r="B53" t="s">
@@ -2137,7 +2424,7 @@
       </c>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A54" t="s">
+      <c r="A54" s="2" t="s">
         <v>58</v>
       </c>
       <c r="B54" t="s">
@@ -2214,7 +2501,7 @@
       </c>
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A61" t="s">
+      <c r="A61" s="2" t="s">
         <v>65</v>
       </c>
       <c r="B61" t="s">
@@ -2291,7 +2578,7 @@
       </c>
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A68" t="s">
+      <c r="A68" s="2" t="s">
         <v>72</v>
       </c>
       <c r="B68" t="s">
@@ -2332,6 +2619,721 @@
       </c>
       <c r="C71" t="s">
         <v>2</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D3576F43-4CAB-6F4B-8456-D00DFBCB1042}">
+  <dimension ref="A1:D16"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F8" sqref="F8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>379</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>395</v>
+      </c>
+      <c r="C2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A3">
+        <v>42</v>
+      </c>
+      <c r="B3" t="s">
+        <v>397</v>
+      </c>
+      <c r="C3" t="s">
+        <v>24</v>
+      </c>
+      <c r="D3" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A4">
+        <v>124</v>
+      </c>
+      <c r="B4" t="s">
+        <v>382</v>
+      </c>
+      <c r="C4" t="s">
+        <v>24</v>
+      </c>
+      <c r="D4" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A5">
+        <v>269</v>
+      </c>
+      <c r="B5" t="s">
+        <v>426</v>
+      </c>
+      <c r="C5" t="s">
+        <v>24</v>
+      </c>
+      <c r="D5" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A6">
+        <v>234</v>
+      </c>
+      <c r="B6" t="s">
+        <v>427</v>
+      </c>
+      <c r="C6" t="s">
+        <v>6</v>
+      </c>
+      <c r="D6" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A7">
+        <v>739</v>
+      </c>
+      <c r="B7" t="s">
+        <v>428</v>
+      </c>
+      <c r="C7" t="s">
+        <v>4</v>
+      </c>
+      <c r="D7" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A8">
+        <v>560</v>
+      </c>
+      <c r="B8" t="s">
+        <v>429</v>
+      </c>
+      <c r="C8" t="s">
+        <v>4</v>
+      </c>
+      <c r="D8" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A9">
+        <v>10</v>
+      </c>
+      <c r="B9" t="s">
+        <v>82</v>
+      </c>
+      <c r="C9" t="s">
+        <v>24</v>
+      </c>
+      <c r="D9" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A10">
+        <v>528</v>
+      </c>
+      <c r="B10" t="s">
+        <v>430</v>
+      </c>
+      <c r="C10" t="s">
+        <v>4</v>
+      </c>
+      <c r="D10" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A11">
+        <v>973</v>
+      </c>
+      <c r="B11" t="s">
+        <v>431</v>
+      </c>
+      <c r="C11" t="s">
+        <v>4</v>
+      </c>
+      <c r="D11" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A12">
+        <v>146</v>
+      </c>
+      <c r="B12" t="s">
+        <v>432</v>
+      </c>
+      <c r="C12" t="s">
+        <v>4</v>
+      </c>
+      <c r="D12" t="s">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A13">
+        <v>325</v>
+      </c>
+      <c r="B13" t="s">
+        <v>434</v>
+      </c>
+      <c r="C13" t="s">
+        <v>4</v>
+      </c>
+      <c r="D13" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A14">
+        <v>79</v>
+      </c>
+      <c r="B14" t="s">
+        <v>272</v>
+      </c>
+      <c r="C14" t="s">
+        <v>4</v>
+      </c>
+      <c r="D14" t="s">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A15">
+        <v>76</v>
+      </c>
+      <c r="B15" t="s">
+        <v>113</v>
+      </c>
+      <c r="C15" t="s">
+        <v>24</v>
+      </c>
+      <c r="D15" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A16">
+        <v>295</v>
+      </c>
+      <c r="B16" t="s">
+        <v>265</v>
+      </c>
+      <c r="C16" t="s">
+        <v>24</v>
+      </c>
+      <c r="D16" t="s">
+        <v>422</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4D51C460-8A4B-1A47-A09B-903FD068359E}">
+  <dimension ref="A1:D15"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E4" sqref="E4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="5.1640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="34.5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.6640625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1">
+        <v>146</v>
+      </c>
+      <c r="B1" t="s">
+        <v>432</v>
+      </c>
+      <c r="C1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1" t="s">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A2">
+        <v>2</v>
+      </c>
+      <c r="B2" t="s">
+        <v>436</v>
+      </c>
+      <c r="C2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D2" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A3">
+        <v>20</v>
+      </c>
+      <c r="B3" t="s">
+        <v>437</v>
+      </c>
+      <c r="C3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D3" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A4">
+        <v>15</v>
+      </c>
+      <c r="B4" t="s">
+        <v>438</v>
+      </c>
+      <c r="C4" t="s">
+        <v>4</v>
+      </c>
+      <c r="D4" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A5">
+        <v>138</v>
+      </c>
+      <c r="B5" t="s">
+        <v>406</v>
+      </c>
+      <c r="C5" t="s">
+        <v>4</v>
+      </c>
+      <c r="D5" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A6">
+        <v>160</v>
+      </c>
+      <c r="B6" t="s">
+        <v>439</v>
+      </c>
+      <c r="C6" t="s">
+        <v>6</v>
+      </c>
+      <c r="D6" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A7">
+        <v>56</v>
+      </c>
+      <c r="B7" t="s">
+        <v>259</v>
+      </c>
+      <c r="C7" t="s">
+        <v>4</v>
+      </c>
+      <c r="D7" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A8">
+        <v>238</v>
+      </c>
+      <c r="B8" t="s">
+        <v>346</v>
+      </c>
+      <c r="C8" t="s">
+        <v>4</v>
+      </c>
+      <c r="D8" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A9">
+        <v>36</v>
+      </c>
+      <c r="B9" t="s">
+        <v>441</v>
+      </c>
+      <c r="C9" t="s">
+        <v>4</v>
+      </c>
+      <c r="D9" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A10">
+        <v>103</v>
+      </c>
+      <c r="B10" t="s">
+        <v>137</v>
+      </c>
+      <c r="C10" t="s">
+        <v>4</v>
+      </c>
+      <c r="D10" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A11">
+        <v>48</v>
+      </c>
+      <c r="B11" t="s">
+        <v>442</v>
+      </c>
+      <c r="C11" t="s">
+        <v>4</v>
+      </c>
+      <c r="D11" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A12">
+        <v>253</v>
+      </c>
+      <c r="B12" t="s">
+        <v>257</v>
+      </c>
+      <c r="C12" t="s">
+        <v>4</v>
+      </c>
+      <c r="D12" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A13">
+        <v>227</v>
+      </c>
+      <c r="B13" t="s">
+        <v>443</v>
+      </c>
+      <c r="C13" t="s">
+        <v>4</v>
+      </c>
+      <c r="D13" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A14">
+        <v>739</v>
+      </c>
+      <c r="B14" t="s">
+        <v>428</v>
+      </c>
+      <c r="C14" t="s">
+        <v>4</v>
+      </c>
+      <c r="D14" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A15">
+        <v>1381</v>
+      </c>
+      <c r="B15" t="s">
+        <v>444</v>
+      </c>
+      <c r="C15" t="s">
+        <v>4</v>
+      </c>
+      <c r="D15" t="s">
+        <v>195</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BF23F373-1BC0-6540-92FC-C48EAAA6037A}">
+  <dimension ref="A1:D16"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F18" sqref="F18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="16.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="33.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.83203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="19.1640625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>379</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A2">
+        <v>53</v>
+      </c>
+      <c r="B2" t="s">
+        <v>103</v>
+      </c>
+      <c r="C2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A3">
+        <v>102</v>
+      </c>
+      <c r="B3" t="s">
+        <v>135</v>
+      </c>
+      <c r="C3" t="s">
+        <v>4</v>
+      </c>
+      <c r="D3" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A4">
+        <v>121</v>
+      </c>
+      <c r="B4" t="s">
+        <v>243</v>
+      </c>
+      <c r="C4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D4" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A5">
+        <v>238</v>
+      </c>
+      <c r="B5" t="s">
+        <v>346</v>
+      </c>
+      <c r="C5" t="s">
+        <v>4</v>
+      </c>
+      <c r="D5" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A6">
+        <v>300</v>
+      </c>
+      <c r="B6" t="s">
+        <v>159</v>
+      </c>
+      <c r="C6" t="s">
+        <v>4</v>
+      </c>
+      <c r="D6" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A7">
+        <v>22</v>
+      </c>
+      <c r="B7" t="s">
+        <v>445</v>
+      </c>
+      <c r="C7" t="s">
+        <v>4</v>
+      </c>
+      <c r="D7" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A8">
+        <v>146</v>
+      </c>
+      <c r="B8" t="s">
+        <v>432</v>
+      </c>
+      <c r="C8" t="s">
+        <v>4</v>
+      </c>
+      <c r="D8" t="s">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A9">
+        <v>560</v>
+      </c>
+      <c r="B9" t="s">
+        <v>429</v>
+      </c>
+      <c r="C9" t="s">
+        <v>4</v>
+      </c>
+      <c r="D9" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A10">
+        <v>23</v>
+      </c>
+      <c r="B10" t="s">
+        <v>85</v>
+      </c>
+      <c r="C10" t="s">
+        <v>24</v>
+      </c>
+      <c r="D10" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A11">
+        <v>5</v>
+      </c>
+      <c r="B11" t="s">
+        <v>192</v>
+      </c>
+      <c r="C11" t="s">
+        <v>4</v>
+      </c>
+      <c r="D11" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A12">
+        <v>49</v>
+      </c>
+      <c r="B12" t="s">
+        <v>400</v>
+      </c>
+      <c r="C12" t="s">
+        <v>4</v>
+      </c>
+      <c r="D12" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A13">
+        <v>17</v>
+      </c>
+      <c r="B13" t="s">
+        <v>447</v>
+      </c>
+      <c r="C13" t="s">
+        <v>4</v>
+      </c>
+      <c r="D13" t="s">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A14">
+        <v>138</v>
+      </c>
+      <c r="B14" t="s">
+        <v>406</v>
+      </c>
+      <c r="C14" t="s">
+        <v>4</v>
+      </c>
+      <c r="D14" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A15">
+        <v>152</v>
+      </c>
+      <c r="B15" t="s">
+        <v>147</v>
+      </c>
+      <c r="C15" t="s">
+        <v>4</v>
+      </c>
+      <c r="D15" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A16">
+        <v>621</v>
+      </c>
+      <c r="B16" t="s">
+        <v>425</v>
+      </c>
+      <c r="C16" t="s">
+        <v>4</v>
+      </c>
+      <c r="D16" t="s">
+        <v>396</v>
       </c>
     </row>
   </sheetData>
@@ -2344,7 +3346,7 @@
   <dimension ref="A1:E42"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B41" sqref="B41"/>
+      <selection activeCell="B44" sqref="B44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2404,13 +3406,13 @@
         <v>23</v>
       </c>
       <c r="B4" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="C4" t="s">
         <v>80</v>
       </c>
       <c r="D4" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
@@ -2418,13 +3420,13 @@
         <v>30</v>
       </c>
       <c r="B5" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="C5" t="s">
         <v>80</v>
       </c>
       <c r="D5" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
@@ -2432,13 +3434,13 @@
         <v>32</v>
       </c>
       <c r="B6" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="C6" t="s">
         <v>80</v>
       </c>
       <c r="D6" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
@@ -2446,13 +3448,13 @@
         <v>39</v>
       </c>
       <c r="B7" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="C7" t="s">
         <v>80</v>
       </c>
       <c r="D7" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
@@ -2460,13 +3462,13 @@
         <v>40</v>
       </c>
       <c r="B8" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="C8" t="s">
         <v>80</v>
       </c>
       <c r="D8" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
@@ -2474,13 +3476,13 @@
         <v>43</v>
       </c>
       <c r="B9" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="C9" t="s">
         <v>80</v>
       </c>
       <c r="D9" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
@@ -2488,13 +3490,13 @@
         <v>47</v>
       </c>
       <c r="B10" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="C10" t="s">
         <v>80</v>
       </c>
       <c r="D10" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.2">
@@ -2502,13 +3504,13 @@
         <v>51</v>
       </c>
       <c r="B11" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="C11" t="s">
         <v>80</v>
       </c>
       <c r="D11" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.2">
@@ -2516,13 +3518,13 @@
         <v>52</v>
       </c>
       <c r="B12" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="C12" t="s">
         <v>80</v>
       </c>
       <c r="D12" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.2">
@@ -2530,13 +3532,13 @@
         <v>53</v>
       </c>
       <c r="B13" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="C13" t="s">
         <v>80</v>
       </c>
       <c r="D13" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.2">
@@ -2544,13 +3546,13 @@
         <v>62</v>
       </c>
       <c r="B14" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="C14" t="s">
         <v>80</v>
       </c>
       <c r="D14" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.2">
@@ -2558,13 +3560,13 @@
         <v>63</v>
       </c>
       <c r="B15" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="C15" t="s">
         <v>80</v>
       </c>
       <c r="D15" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.2">
@@ -2572,13 +3574,13 @@
         <v>72</v>
       </c>
       <c r="B16" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="C16" t="s">
         <v>80</v>
       </c>
       <c r="D16" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.2">
@@ -2586,13 +3588,13 @@
         <v>74</v>
       </c>
       <c r="B17" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="C17" t="s">
         <v>80</v>
       </c>
       <c r="D17" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.2">
@@ -2600,13 +3602,13 @@
         <v>76</v>
       </c>
       <c r="B18" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="C18" t="s">
         <v>80</v>
       </c>
       <c r="D18" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.2">
@@ -2614,13 +3616,13 @@
         <v>84</v>
       </c>
       <c r="B19" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="C19" t="s">
         <v>80</v>
       </c>
       <c r="D19" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.2">
@@ -2628,13 +3630,13 @@
         <v>85</v>
       </c>
       <c r="B20" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="C20" t="s">
         <v>80</v>
       </c>
       <c r="D20" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.2">
@@ -2642,13 +3644,13 @@
         <v>90</v>
       </c>
       <c r="B21" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="C21" t="s">
         <v>80</v>
       </c>
       <c r="D21" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.2">
@@ -2656,13 +3658,13 @@
         <v>91</v>
       </c>
       <c r="B22" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="C22" t="s">
         <v>80</v>
       </c>
       <c r="D22" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.2">
@@ -2670,13 +3672,13 @@
         <v>93</v>
       </c>
       <c r="B23" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="C23" t="s">
         <v>80</v>
       </c>
       <c r="D23" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.2">
@@ -2684,13 +3686,13 @@
         <v>94</v>
       </c>
       <c r="B24" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="C24" t="s">
         <v>80</v>
       </c>
       <c r="D24" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.2">
@@ -2698,13 +3700,13 @@
         <v>95</v>
       </c>
       <c r="B25" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="C25" t="s">
         <v>80</v>
       </c>
       <c r="D25" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.2">
@@ -2712,13 +3714,13 @@
         <v>96</v>
       </c>
       <c r="B26" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="C26" t="s">
         <v>80</v>
       </c>
       <c r="D26" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.2">
@@ -2726,13 +3728,13 @@
         <v>97</v>
       </c>
       <c r="B27" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="C27" t="s">
         <v>80</v>
       </c>
       <c r="D27" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.2">
@@ -2740,13 +3742,13 @@
         <v>98</v>
       </c>
       <c r="B28" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="C28" t="s">
         <v>80</v>
       </c>
       <c r="D28" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.2">
@@ -2754,13 +3756,13 @@
         <v>102</v>
       </c>
       <c r="B29" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="C29" t="s">
         <v>80</v>
       </c>
       <c r="D29" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.2">
@@ -2768,13 +3770,13 @@
         <v>103</v>
       </c>
       <c r="B30" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="C30" t="s">
         <v>80</v>
       </c>
       <c r="D30" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.2">
@@ -2782,13 +3784,13 @@
         <v>114</v>
       </c>
       <c r="B31" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="C31" t="s">
         <v>80</v>
       </c>
       <c r="D31" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.2">
@@ -2796,13 +3798,13 @@
         <v>120</v>
       </c>
       <c r="B32" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="C32" t="s">
         <v>80</v>
       </c>
       <c r="D32" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.2">
@@ -2810,13 +3812,13 @@
         <v>139</v>
       </c>
       <c r="B33" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="C33" t="s">
         <v>80</v>
       </c>
       <c r="D33" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.2">
@@ -2824,13 +3826,13 @@
         <v>151</v>
       </c>
       <c r="B34" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="C34" t="s">
         <v>80</v>
       </c>
       <c r="D34" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.2">
@@ -2838,13 +3840,13 @@
         <v>152</v>
       </c>
       <c r="B35" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="C35" t="s">
         <v>80</v>
       </c>
       <c r="D35" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.2">
@@ -2852,13 +3854,13 @@
         <v>200</v>
       </c>
       <c r="B36" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="C36" t="s">
         <v>80</v>
       </c>
       <c r="D36" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.2">
@@ -2866,13 +3868,13 @@
         <v>208</v>
       </c>
       <c r="B37" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="C37" t="s">
         <v>80</v>
       </c>
       <c r="D37" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.2">
@@ -2880,13 +3882,13 @@
         <v>215</v>
       </c>
       <c r="B38" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="C38" t="s">
         <v>80</v>
       </c>
       <c r="D38" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.2">
@@ -2894,13 +3896,13 @@
         <v>221</v>
       </c>
       <c r="B39" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="C39" t="s">
         <v>80</v>
       </c>
       <c r="D39" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.2">
@@ -2908,13 +3910,13 @@
         <v>239</v>
       </c>
       <c r="B40" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="C40" t="s">
         <v>80</v>
       </c>
       <c r="D40" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.2">
@@ -2922,13 +3924,13 @@
         <v>300</v>
       </c>
       <c r="B41" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="C41" t="s">
         <v>80</v>
       </c>
       <c r="D41" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.2">
@@ -2936,10 +3938,10 @@
         <v>309</v>
       </c>
       <c r="B42" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="C42" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
     </row>
   </sheetData>
@@ -2968,13 +3970,13 @@
         <v>136</v>
       </c>
       <c r="B1" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="C1" t="s">
         <v>80</v>
       </c>
       <c r="D1" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
@@ -2982,13 +3984,13 @@
         <v>137</v>
       </c>
       <c r="B2" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="C2" t="s">
         <v>80</v>
       </c>
       <c r="D2" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
@@ -2996,13 +3998,13 @@
         <v>190</v>
       </c>
       <c r="B3" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="C3" t="s">
         <v>80</v>
       </c>
       <c r="D3" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
@@ -3010,13 +4012,13 @@
         <v>191</v>
       </c>
       <c r="B4" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="C4" t="s">
         <v>80</v>
       </c>
       <c r="D4" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
@@ -3024,13 +4026,13 @@
         <v>201</v>
       </c>
       <c r="B5" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="C5" t="s">
         <v>80</v>
       </c>
       <c r="D5" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
@@ -3038,13 +4040,13 @@
         <v>231</v>
       </c>
       <c r="B6" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="C6" t="s">
         <v>80</v>
       </c>
       <c r="D6" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
@@ -3052,13 +4054,13 @@
         <v>260</v>
       </c>
       <c r="B7" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="C7" t="s">
         <v>80</v>
       </c>
       <c r="D7" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
@@ -3066,13 +4068,13 @@
         <v>263</v>
       </c>
       <c r="B8" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="C8" t="s">
         <v>80</v>
       </c>
       <c r="D8" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
@@ -3080,13 +4082,13 @@
         <v>338</v>
       </c>
       <c r="B9" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="C9" t="s">
         <v>80</v>
       </c>
       <c r="D9" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.2">
@@ -3094,13 +4096,13 @@
         <v>371</v>
       </c>
       <c r="B10" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="C10" t="s">
         <v>80</v>
       </c>
       <c r="D10" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.2">
@@ -3108,13 +4110,13 @@
         <v>482</v>
       </c>
       <c r="B11" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="C11" t="s">
         <v>80</v>
       </c>
       <c r="D11" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.2">
@@ -3122,13 +4124,13 @@
         <v>476</v>
       </c>
       <c r="B12" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="C12" t="s">
         <v>80</v>
       </c>
       <c r="D12" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.2">
@@ -3136,13 +4138,13 @@
         <v>790</v>
       </c>
       <c r="B13" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="C13" t="s">
         <v>80</v>
       </c>
       <c r="D13" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
     </row>
   </sheetData>
@@ -3155,7 +4157,7 @@
   <dimension ref="A1:G26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+      <selection activeCell="D47" sqref="D47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3183,13 +4185,13 @@
         <v>78</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
@@ -3197,22 +4199,22 @@
         <v>5</v>
       </c>
       <c r="B2" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="C2" t="s">
         <v>80</v>
       </c>
       <c r="D2" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="E2" t="s">
         <v>4</v>
       </c>
       <c r="F2" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="G2" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="17" x14ac:dyDescent="0.25">
@@ -3232,10 +4234,10 @@
         <v>24</v>
       </c>
       <c r="F3" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="G3" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.2">
@@ -3243,22 +4245,22 @@
         <v>70</v>
       </c>
       <c r="B4" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="C4" t="s">
         <v>80</v>
       </c>
       <c r="D4" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="E4" t="s">
         <v>6</v>
       </c>
       <c r="F4" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="G4" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.2">
@@ -3266,22 +4268,22 @@
         <v>91</v>
       </c>
       <c r="B5" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="C5" t="s">
         <v>80</v>
       </c>
       <c r="D5" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="E5" t="s">
         <v>4</v>
       </c>
       <c r="F5" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="G5" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.2">
@@ -3289,22 +4291,22 @@
         <v>114</v>
       </c>
       <c r="B6" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="C6" t="s">
         <v>80</v>
       </c>
       <c r="D6" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="E6" t="s">
         <v>4</v>
       </c>
       <c r="F6" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="G6" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.2">
@@ -3312,22 +4314,22 @@
         <v>120</v>
       </c>
       <c r="B7" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="C7" t="s">
         <v>80</v>
       </c>
       <c r="D7" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="E7" t="s">
         <v>4</v>
       </c>
       <c r="F7" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="G7" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.2">
@@ -3335,22 +4337,22 @@
         <v>152</v>
       </c>
       <c r="B8" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="C8" t="s">
         <v>80</v>
       </c>
       <c r="D8" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="E8" t="s">
         <v>4</v>
       </c>
       <c r="F8" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="G8" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.2">
@@ -3358,22 +4360,22 @@
         <v>198</v>
       </c>
       <c r="B9" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="C9" t="s">
         <v>80</v>
       </c>
       <c r="D9" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="E9" t="s">
         <v>4</v>
       </c>
       <c r="F9" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="G9" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.2">
@@ -3381,22 +4383,22 @@
         <v>213</v>
       </c>
       <c r="B10" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="C10" t="s">
         <v>80</v>
       </c>
       <c r="D10" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="E10" t="s">
         <v>4</v>
       </c>
       <c r="F10" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="G10" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.2">
@@ -3404,22 +4406,22 @@
         <v>300</v>
       </c>
       <c r="B11" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="C11" t="s">
         <v>80</v>
       </c>
       <c r="D11" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="E11" t="s">
         <v>4</v>
       </c>
       <c r="F11" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="G11" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.2">
@@ -3427,22 +4429,22 @@
         <v>309</v>
       </c>
       <c r="B12" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="C12" t="s">
         <v>80</v>
       </c>
       <c r="D12" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="E12" t="s">
         <v>4</v>
       </c>
       <c r="F12" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="G12" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.2">
@@ -3450,22 +4452,22 @@
         <v>322</v>
       </c>
       <c r="B13" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="C13" t="s">
         <v>80</v>
       </c>
       <c r="D13" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="E13" t="s">
         <v>4</v>
       </c>
       <c r="F13" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="G13" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.2">
@@ -3473,22 +4475,22 @@
         <v>338</v>
       </c>
       <c r="B14" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="C14" t="s">
         <v>80</v>
       </c>
       <c r="D14" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="E14" t="s">
         <v>6</v>
       </c>
       <c r="F14" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="G14" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.2">
@@ -3496,22 +4498,22 @@
         <v>413</v>
       </c>
       <c r="B15" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="C15" t="s">
         <v>80</v>
       </c>
       <c r="D15" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="E15" t="s">
         <v>4</v>
       </c>
       <c r="F15" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="G15" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.2">
@@ -3519,22 +4521,22 @@
         <v>474</v>
       </c>
       <c r="B16" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="C16" t="s">
         <v>80</v>
       </c>
       <c r="D16" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="E16" t="s">
         <v>4</v>
       </c>
       <c r="F16" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="G16" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.2">
@@ -3542,22 +4544,22 @@
         <v>516</v>
       </c>
       <c r="B17" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="C17" t="s">
         <v>80</v>
       </c>
       <c r="D17" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="E17" t="s">
         <v>4</v>
       </c>
       <c r="F17" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="G17" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.2">
@@ -3565,22 +4567,22 @@
         <v>516</v>
       </c>
       <c r="B18" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="C18" t="s">
         <v>80</v>
       </c>
       <c r="D18" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="E18" t="s">
         <v>4</v>
       </c>
       <c r="F18" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="G18" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.2">
@@ -3588,22 +4590,22 @@
         <v>72</v>
       </c>
       <c r="B19" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="C19" t="s">
         <v>80</v>
       </c>
       <c r="D19" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="E19" t="s">
         <v>24</v>
       </c>
       <c r="F19" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="G19" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.2">
@@ -3611,22 +4613,22 @@
         <v>64</v>
       </c>
       <c r="B20" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="C20" t="s">
         <v>80</v>
       </c>
       <c r="D20" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="E20" t="s">
         <v>4</v>
       </c>
       <c r="F20" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="G20" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.2">
@@ -3634,22 +4636,22 @@
         <v>63</v>
       </c>
       <c r="B21" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="C21" t="s">
         <v>80</v>
       </c>
       <c r="D21" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="E21" t="s">
         <v>4</v>
       </c>
       <c r="F21" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="G21" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.2">
@@ -3657,22 +4659,22 @@
         <v>139</v>
       </c>
       <c r="B22" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="C22" t="s">
         <v>80</v>
       </c>
       <c r="D22" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="E22" t="s">
         <v>4</v>
       </c>
       <c r="F22" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="G22" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.2">
@@ -3680,22 +4682,22 @@
         <v>141</v>
       </c>
       <c r="B23" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="C23" t="s">
         <v>80</v>
       </c>
       <c r="D23" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="E23" t="s">
         <v>6</v>
       </c>
       <c r="F23" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="G23" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.2">
@@ -3703,22 +4705,22 @@
         <v>140</v>
       </c>
       <c r="B24" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="C24" t="s">
         <v>80</v>
       </c>
       <c r="D24" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="E24" t="s">
         <v>24</v>
       </c>
       <c r="F24" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="G24" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.2">
@@ -3726,22 +4728,22 @@
         <v>300</v>
       </c>
       <c r="B25" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="C25" t="s">
         <v>80</v>
       </c>
       <c r="D25" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="E25" t="s">
         <v>4</v>
       </c>
       <c r="F25" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="G25" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.2">
@@ -3749,22 +4751,22 @@
         <v>64</v>
       </c>
       <c r="B26" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="C26" t="s">
         <v>80</v>
       </c>
       <c r="D26" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="E26" t="s">
         <v>4</v>
       </c>
       <c r="F26" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="G26" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
     </row>
   </sheetData>
@@ -3777,7 +4779,7 @@
   <dimension ref="A1:G27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D46" sqref="D46"/>
+      <selection activeCell="D48" sqref="D48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3805,13 +4807,13 @@
         <v>78</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
@@ -3819,22 +4821,22 @@
         <v>55</v>
       </c>
       <c r="B2" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="C2" t="s">
         <v>80</v>
       </c>
       <c r="D2" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="E2" t="s">
         <v>4</v>
       </c>
       <c r="F2" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="G2" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.2">
@@ -3842,22 +4844,22 @@
         <v>45</v>
       </c>
       <c r="B3" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="C3" t="s">
         <v>80</v>
       </c>
       <c r="D3" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="E3" t="s">
         <v>24</v>
       </c>
       <c r="F3" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="G3" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.2">
@@ -3865,22 +4867,22 @@
         <v>392</v>
       </c>
       <c r="B4" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="C4" t="s">
         <v>80</v>
       </c>
       <c r="D4" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="E4" t="s">
         <v>6</v>
       </c>
       <c r="F4" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="G4" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.2">
@@ -3888,22 +4890,22 @@
         <v>135</v>
       </c>
       <c r="B5" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="C5" t="s">
         <v>80</v>
       </c>
       <c r="D5" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="E5" t="s">
         <v>24</v>
       </c>
       <c r="F5" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="G5" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.2">
@@ -3911,22 +4913,22 @@
         <v>406</v>
       </c>
       <c r="B6" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="C6" t="s">
         <v>80</v>
       </c>
       <c r="D6" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="E6" t="s">
         <v>4</v>
       </c>
       <c r="F6" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="G6" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.2">
@@ -3934,22 +4936,22 @@
         <v>1005</v>
       </c>
       <c r="B7" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="C7" t="s">
         <v>80</v>
       </c>
       <c r="D7" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="E7" t="s">
         <v>6</v>
       </c>
       <c r="F7" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="G7" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.2">
@@ -3957,22 +4959,22 @@
         <v>452</v>
       </c>
       <c r="B8" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="C8" t="s">
         <v>80</v>
       </c>
       <c r="D8" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="E8" t="s">
         <v>4</v>
       </c>
       <c r="F8" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="G8" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.2">
@@ -3980,22 +4982,22 @@
         <v>1006</v>
       </c>
       <c r="B9" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="C9" t="s">
         <v>80</v>
       </c>
       <c r="D9" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="E9" t="s">
         <v>4</v>
       </c>
       <c r="F9" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="G9" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.2">
@@ -4003,22 +5005,22 @@
         <v>1246</v>
       </c>
       <c r="B10" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="C10" t="s">
         <v>80</v>
       </c>
       <c r="D10" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="E10" t="s">
         <v>24</v>
       </c>
       <c r="F10" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="G10" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.2">
@@ -4026,22 +5028,22 @@
         <v>121</v>
       </c>
       <c r="B11" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="C11" t="s">
         <v>80</v>
       </c>
       <c r="D11" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="E11" t="s">
         <v>6</v>
       </c>
       <c r="F11" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="G11" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.2">
@@ -4049,22 +5051,22 @@
         <v>122</v>
       </c>
       <c r="B12" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="C12" t="s">
         <v>80</v>
       </c>
       <c r="D12" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="E12" t="s">
         <v>4</v>
       </c>
       <c r="F12" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="G12" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.2">
@@ -4072,22 +5074,22 @@
         <v>392</v>
       </c>
       <c r="B13" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="C13" t="s">
         <v>80</v>
       </c>
       <c r="D13" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="E13" t="s">
         <v>6</v>
       </c>
       <c r="F13" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="G13" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.2">
@@ -4095,22 +5097,22 @@
         <v>73</v>
       </c>
       <c r="B14" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="C14" t="s">
         <v>80</v>
       </c>
       <c r="D14" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="E14" t="s">
         <v>4</v>
       </c>
       <c r="F14" t="s">
+        <v>196</v>
+      </c>
+      <c r="G14" t="s">
         <v>195</v>
-      </c>
-      <c r="G14" t="s">
-        <v>194</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.2">
@@ -4118,22 +5120,22 @@
         <v>43</v>
       </c>
       <c r="B15" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="C15" t="s">
         <v>80</v>
       </c>
       <c r="D15" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="E15" t="s">
         <v>4</v>
       </c>
       <c r="F15" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="G15" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.2">
@@ -4141,22 +5143,22 @@
         <v>164</v>
       </c>
       <c r="B16" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="C16" t="s">
         <v>80</v>
       </c>
       <c r="D16" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="E16" t="s">
         <v>24</v>
       </c>
       <c r="F16" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="G16" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.2">
@@ -4164,22 +5166,22 @@
         <v>860</v>
       </c>
       <c r="B17" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="C17" t="s">
         <v>80</v>
       </c>
       <c r="D17" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="E17" t="s">
         <v>4</v>
       </c>
       <c r="F17" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="G17" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.2">
@@ -4187,22 +5189,22 @@
         <v>1029</v>
       </c>
       <c r="B18" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="C18" t="s">
         <v>80</v>
       </c>
       <c r="D18" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="E18" t="s">
         <v>4</v>
       </c>
       <c r="F18" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="G18" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.2">
@@ -4210,22 +5212,22 @@
         <v>189</v>
       </c>
       <c r="B19" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="C19" t="s">
         <v>80</v>
       </c>
       <c r="D19" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="E19" t="s">
         <v>4</v>
       </c>
       <c r="F19" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="G19" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.2">
@@ -4233,22 +5235,22 @@
         <v>135</v>
       </c>
       <c r="B20" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="C20" t="s">
         <v>80</v>
       </c>
       <c r="D20" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="E20" t="s">
         <v>24</v>
       </c>
       <c r="F20" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="G20" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.2">
@@ -4256,22 +5258,22 @@
         <v>253</v>
       </c>
       <c r="B21" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="C21" t="s">
         <v>80</v>
       </c>
       <c r="D21" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="E21" t="s">
         <v>4</v>
       </c>
       <c r="F21" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="G21" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.2">
@@ -4279,22 +5281,22 @@
         <v>56</v>
       </c>
       <c r="B22" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="C22" t="s">
         <v>80</v>
       </c>
       <c r="D22" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="E22" t="s">
         <v>4</v>
       </c>
       <c r="F22" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="G22" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.2">
@@ -4302,22 +5304,22 @@
         <v>763</v>
       </c>
       <c r="B23" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="C23" t="s">
         <v>80</v>
       </c>
       <c r="D23" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="E23" t="s">
         <v>4</v>
       </c>
       <c r="F23" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="G23" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.2">
@@ -4325,22 +5327,22 @@
         <v>134</v>
       </c>
       <c r="B24" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="C24" t="s">
         <v>80</v>
       </c>
       <c r="D24" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="E24" t="s">
         <v>4</v>
       </c>
       <c r="F24" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="G24" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.2">
@@ -4348,22 +5350,22 @@
         <v>295</v>
       </c>
       <c r="B25" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="C25" t="s">
         <v>80</v>
       </c>
       <c r="D25" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="E25" t="s">
         <v>24</v>
       </c>
       <c r="F25" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="G25" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.2">
@@ -4371,22 +5373,22 @@
         <v>406</v>
       </c>
       <c r="B26" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="C26" t="s">
         <v>80</v>
       </c>
       <c r="D26" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="E26" t="s">
         <v>4</v>
       </c>
       <c r="F26" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="G26" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.2">
@@ -4394,22 +5396,22 @@
         <v>218</v>
       </c>
       <c r="B27" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="C27" t="s">
         <v>80</v>
       </c>
       <c r="D27" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="E27" t="s">
         <v>24</v>
       </c>
       <c r="F27" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="G27" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
     </row>
   </sheetData>
@@ -4450,13 +5452,13 @@
         <v>78</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
@@ -4464,22 +5466,22 @@
         <v>54</v>
       </c>
       <c r="B2" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="C2" t="s">
         <v>80</v>
       </c>
       <c r="D2" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="E2" t="s">
         <v>4</v>
       </c>
       <c r="F2" t="s">
+        <v>196</v>
+      </c>
+      <c r="G2" t="s">
         <v>195</v>
-      </c>
-      <c r="G2" t="s">
-        <v>194</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.2">
@@ -4487,22 +5489,22 @@
         <v>73</v>
       </c>
       <c r="B3" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="C3" t="s">
         <v>80</v>
       </c>
       <c r="D3" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="E3" t="s">
         <v>4</v>
       </c>
       <c r="F3" t="s">
+        <v>196</v>
+      </c>
+      <c r="G3" t="s">
         <v>195</v>
-      </c>
-      <c r="G3" t="s">
-        <v>194</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.2">
@@ -4510,22 +5512,22 @@
         <v>79</v>
       </c>
       <c r="B4" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="C4" t="s">
         <v>80</v>
       </c>
       <c r="D4" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="E4" t="s">
         <v>4</v>
       </c>
       <c r="F4" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="G4" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.2">
@@ -4533,22 +5535,22 @@
         <v>130</v>
       </c>
       <c r="B5" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="C5" t="s">
         <v>80</v>
       </c>
       <c r="D5" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="E5" t="s">
         <v>4</v>
       </c>
       <c r="F5" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="G5" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.2">
@@ -4556,22 +5558,22 @@
         <v>129</v>
       </c>
       <c r="B6" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="C6" t="s">
         <v>80</v>
       </c>
       <c r="D6" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="E6" t="s">
         <v>4</v>
       </c>
       <c r="F6" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="G6" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.2">
@@ -4579,22 +5581,22 @@
         <v>63</v>
       </c>
       <c r="B7" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="C7" t="s">
         <v>80</v>
       </c>
       <c r="D7" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="E7" t="s">
         <v>4</v>
       </c>
       <c r="F7" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="G7" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.2">
@@ -4602,22 +5604,22 @@
         <v>695</v>
       </c>
       <c r="B8" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="C8" t="s">
         <v>80</v>
       </c>
       <c r="D8" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="E8" t="s">
         <v>4</v>
       </c>
       <c r="F8" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="G8" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.2">
@@ -4625,22 +5627,22 @@
         <v>200</v>
       </c>
       <c r="B9" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="C9" t="s">
         <v>80</v>
       </c>
       <c r="D9" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="E9" t="s">
         <v>4</v>
       </c>
       <c r="F9" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="G9" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.2">
@@ -4648,22 +5650,22 @@
         <v>542</v>
       </c>
       <c r="B10" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="C10" t="s">
         <v>80</v>
       </c>
       <c r="D10" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="E10" t="s">
         <v>4</v>
       </c>
       <c r="F10" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="G10" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.2">
@@ -4671,22 +5673,22 @@
         <v>348</v>
       </c>
       <c r="B11" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="C11" t="s">
         <v>80</v>
       </c>
       <c r="D11" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="E11" t="s">
         <v>4</v>
       </c>
       <c r="F11" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="G11" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.2">
@@ -4694,22 +5696,22 @@
         <v>417</v>
       </c>
       <c r="B12" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="C12" t="s">
         <v>80</v>
       </c>
       <c r="D12" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="E12" t="s">
         <v>4</v>
       </c>
       <c r="F12" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="G12" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.2">
@@ -4717,22 +5719,22 @@
         <v>1260</v>
       </c>
       <c r="B13" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="C13" t="s">
         <v>80</v>
       </c>
       <c r="D13" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="E13" t="s">
         <v>6</v>
       </c>
       <c r="F13" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="G13" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.2">
@@ -4740,22 +5742,22 @@
         <v>228</v>
       </c>
       <c r="B14" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="C14" t="s">
         <v>80</v>
       </c>
       <c r="D14" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="E14" t="s">
         <v>6</v>
       </c>
       <c r="F14" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="G14" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.2">
@@ -4763,22 +5765,22 @@
         <v>1470</v>
       </c>
       <c r="B15" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="C15" t="s">
         <v>80</v>
       </c>
       <c r="D15" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="E15" t="s">
         <v>6</v>
       </c>
       <c r="F15" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="G15" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.2">
@@ -4786,22 +5788,22 @@
         <v>1456</v>
       </c>
       <c r="B16" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="C16" t="s">
         <v>80</v>
       </c>
       <c r="D16" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="E16" t="s">
         <v>4</v>
       </c>
       <c r="F16" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="G16" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.2">
@@ -4809,22 +5811,22 @@
         <v>1025</v>
       </c>
       <c r="B17" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="C17" t="s">
         <v>80</v>
       </c>
       <c r="D17" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="E17" t="s">
         <v>6</v>
       </c>
       <c r="F17" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="G17" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.2">
@@ -4832,22 +5834,22 @@
         <v>1100</v>
       </c>
       <c r="B18" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="C18" t="s">
         <v>80</v>
       </c>
       <c r="D18" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="E18" t="s">
         <v>4</v>
       </c>
       <c r="F18" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="G18" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.2">
@@ -4855,22 +5857,22 @@
         <v>849</v>
       </c>
       <c r="B19" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="C19" t="s">
         <v>80</v>
       </c>
       <c r="D19" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="E19" t="s">
         <v>4</v>
       </c>
       <c r="F19" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="G19" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.2">
@@ -4878,22 +5880,22 @@
         <v>27</v>
       </c>
       <c r="B20" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="C20" t="s">
         <v>80</v>
       </c>
       <c r="D20" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="E20" t="s">
         <v>6</v>
       </c>
       <c r="F20" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="G20" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.2">
@@ -4901,22 +5903,22 @@
         <v>46</v>
       </c>
       <c r="B21" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="C21" t="s">
         <v>80</v>
       </c>
       <c r="D21" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="E21" t="s">
         <v>4</v>
       </c>
       <c r="F21" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="G21" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.2">
@@ -4924,22 +5926,22 @@
         <v>1200</v>
       </c>
       <c r="B22" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="C22" t="s">
         <v>80</v>
       </c>
       <c r="D22" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="E22" t="s">
         <v>4</v>
       </c>
       <c r="F22" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="G22" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.2">
@@ -4947,22 +5949,22 @@
         <v>85</v>
       </c>
       <c r="B23" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="C23" t="s">
         <v>80</v>
       </c>
       <c r="D23" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="E23" t="s">
         <v>24</v>
       </c>
       <c r="F23" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="G23" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.2">
@@ -4970,22 +5972,22 @@
         <v>498</v>
       </c>
       <c r="B24" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="C24" t="s">
         <v>80</v>
       </c>
       <c r="D24" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="E24" t="s">
         <v>4</v>
       </c>
       <c r="F24" t="s">
+        <v>196</v>
+      </c>
+      <c r="G24" t="s">
         <v>195</v>
-      </c>
-      <c r="G24" t="s">
-        <v>194</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.2">
@@ -4993,22 +5995,22 @@
         <v>120</v>
       </c>
       <c r="B25" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="C25" t="s">
         <v>80</v>
       </c>
       <c r="D25" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="E25" t="s">
         <v>4</v>
       </c>
       <c r="F25" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="G25" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.2">
@@ -5016,22 +6018,22 @@
         <v>343</v>
       </c>
       <c r="B26" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="C26" t="s">
         <v>80</v>
       </c>
       <c r="D26" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="E26" t="s">
         <v>4</v>
       </c>
       <c r="F26" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="G26" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.2">
@@ -5039,22 +6041,22 @@
         <v>56</v>
       </c>
       <c r="B27" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="C27" t="s">
         <v>80</v>
       </c>
       <c r="D27" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="E27" t="s">
         <v>4</v>
       </c>
       <c r="F27" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="G27" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
     </row>
   </sheetData>
@@ -5066,7 +6068,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{44931935-14AB-AF46-91D4-8B3EC8F73E03}">
   <dimension ref="A1:G28"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
@@ -5095,13 +6097,13 @@
         <v>78</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
@@ -5109,22 +6111,22 @@
         <v>27</v>
       </c>
       <c r="B2" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="C2" t="s">
         <v>80</v>
       </c>
       <c r="D2" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="E2" t="s">
         <v>6</v>
       </c>
       <c r="F2" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="G2" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.2">
@@ -5132,22 +6134,22 @@
         <v>28</v>
       </c>
       <c r="B3" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="C3" t="s">
         <v>80</v>
       </c>
       <c r="D3" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="E3" t="s">
         <v>6</v>
       </c>
       <c r="F3" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="G3" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.2">
@@ -5155,22 +6157,22 @@
         <v>33</v>
       </c>
       <c r="B4" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="C4" t="s">
         <v>80</v>
       </c>
       <c r="D4" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="E4" t="s">
         <v>4</v>
       </c>
       <c r="F4" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="G4" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.2">
@@ -5178,22 +6180,22 @@
         <v>34</v>
       </c>
       <c r="B5" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="C5" t="s">
         <v>80</v>
       </c>
       <c r="D5" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="E5" t="s">
         <v>4</v>
       </c>
       <c r="F5" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="G5" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.2">
@@ -5201,22 +6203,22 @@
         <v>53</v>
       </c>
       <c r="B6" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="C6" t="s">
         <v>80</v>
       </c>
       <c r="D6" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="E6" t="s">
         <v>6</v>
       </c>
       <c r="F6" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="G6" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.2">
@@ -5224,22 +6226,22 @@
         <v>54</v>
       </c>
       <c r="B7" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="C7" t="s">
         <v>80</v>
       </c>
       <c r="D7" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="E7" t="s">
         <v>4</v>
       </c>
       <c r="F7" t="s">
+        <v>196</v>
+      </c>
+      <c r="G7" t="s">
         <v>195</v>
-      </c>
-      <c r="G7" t="s">
-        <v>194</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.2">
@@ -5247,22 +6249,22 @@
         <v>56</v>
       </c>
       <c r="B8" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="C8" t="s">
         <v>80</v>
       </c>
       <c r="D8" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="E8" t="s">
         <v>4</v>
       </c>
       <c r="F8" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="G8" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.2">
@@ -5270,22 +6272,22 @@
         <v>61</v>
       </c>
       <c r="B9" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="C9" t="s">
         <v>80</v>
       </c>
       <c r="D9" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="E9" t="s">
         <v>4</v>
       </c>
       <c r="F9" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="G9" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.2">
@@ -5293,22 +6295,22 @@
         <v>66</v>
       </c>
       <c r="B10" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="C10" t="s">
         <v>80</v>
       </c>
       <c r="D10" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="E10" t="s">
         <v>6</v>
       </c>
       <c r="F10" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="G10" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.2">
@@ -5316,22 +6318,22 @@
         <v>78</v>
       </c>
       <c r="B11" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="C11" t="s">
         <v>80</v>
       </c>
       <c r="D11" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="E11" t="s">
         <v>4</v>
       </c>
       <c r="F11" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="G11" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.2">
@@ -5339,22 +6341,22 @@
         <v>80</v>
       </c>
       <c r="B12" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="C12" t="s">
         <v>80</v>
       </c>
       <c r="D12" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="E12" t="s">
         <v>4</v>
       </c>
       <c r="F12" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="G12" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.2">
@@ -5362,22 +6364,22 @@
         <v>88</v>
       </c>
       <c r="B13" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="C13" t="s">
         <v>80</v>
       </c>
       <c r="D13" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="E13" t="s">
         <v>6</v>
       </c>
       <c r="F13" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="G13" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.2">
@@ -5385,22 +6387,22 @@
         <v>105</v>
       </c>
       <c r="B14" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="C14" t="s">
         <v>80</v>
       </c>
       <c r="D14" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="E14" t="s">
         <v>4</v>
       </c>
       <c r="F14" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="G14" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.2">
@@ -5408,22 +6410,22 @@
         <v>118</v>
       </c>
       <c r="B15" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="C15" t="s">
         <v>80</v>
       </c>
       <c r="D15" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="E15" t="s">
         <v>6</v>
       </c>
       <c r="F15" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="G15" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.2">
@@ -5431,22 +6433,22 @@
         <v>120</v>
       </c>
       <c r="B16" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="C16" t="s">
         <v>80</v>
       </c>
       <c r="D16" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="E16" t="s">
         <v>4</v>
       </c>
       <c r="F16" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="G16" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.2">
@@ -5454,22 +6456,22 @@
         <v>121</v>
       </c>
       <c r="B17" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="C17" t="s">
         <v>80</v>
       </c>
       <c r="D17" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="E17" t="s">
         <v>6</v>
       </c>
       <c r="F17" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="G17" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.2">
@@ -5477,22 +6479,22 @@
         <v>122</v>
       </c>
       <c r="B18" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="C18" t="s">
         <v>80</v>
       </c>
       <c r="D18" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="E18" t="s">
         <v>4</v>
       </c>
       <c r="F18" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="G18" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.2">
@@ -5500,22 +6502,22 @@
         <v>152</v>
       </c>
       <c r="B19" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="C19" t="s">
         <v>80</v>
       </c>
       <c r="D19" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="E19" t="s">
         <v>4</v>
       </c>
       <c r="F19" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="G19" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.2">
@@ -5523,22 +6525,22 @@
         <v>198</v>
       </c>
       <c r="B20" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="C20" t="s">
         <v>80</v>
       </c>
       <c r="D20" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="E20" t="s">
         <v>4</v>
       </c>
       <c r="F20" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="G20" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.2">
@@ -5546,22 +6548,22 @@
         <v>200</v>
       </c>
       <c r="B21" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="C21" t="s">
         <v>80</v>
       </c>
       <c r="D21" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="E21" t="s">
         <v>4</v>
       </c>
       <c r="F21" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="G21" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.2">
@@ -5569,22 +6571,22 @@
         <v>215</v>
       </c>
       <c r="B22" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="C22" t="s">
         <v>80</v>
       </c>
       <c r="D22" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="E22" t="s">
         <v>4</v>
       </c>
       <c r="F22" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="G22" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.2">
@@ -5592,22 +6594,22 @@
         <v>238</v>
       </c>
       <c r="B23" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="C23" t="s">
         <v>80</v>
       </c>
       <c r="D23" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="E23" t="s">
         <v>4</v>
       </c>
       <c r="F23" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="G23" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.2">
@@ -5615,22 +6617,22 @@
         <v>300</v>
       </c>
       <c r="B24" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="C24" t="s">
         <v>80</v>
       </c>
       <c r="D24" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="E24" t="s">
         <v>4</v>
       </c>
       <c r="F24" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="G24" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.2">
@@ -5638,22 +6640,22 @@
         <v>345</v>
       </c>
       <c r="B25" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="C25" t="s">
         <v>80</v>
       </c>
       <c r="D25" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="E25" t="s">
         <v>6</v>
       </c>
       <c r="F25" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="G25" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.2">
@@ -5661,22 +6663,22 @@
         <v>383</v>
       </c>
       <c r="B26" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="C26" t="s">
         <v>80</v>
       </c>
       <c r="D26" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="E26" t="s">
         <v>6</v>
       </c>
       <c r="F26" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="G26" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.2">
@@ -5684,22 +6686,22 @@
         <v>392</v>
       </c>
       <c r="B27" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="C27" t="s">
         <v>80</v>
       </c>
       <c r="D27" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="E27" t="s">
         <v>6</v>
       </c>
       <c r="F27" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="G27" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.2">
@@ -5707,22 +6709,1189 @@
         <v>424</v>
       </c>
       <c r="B28" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="C28" t="s">
         <v>80</v>
       </c>
       <c r="D28" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="E28" t="s">
         <v>4</v>
       </c>
       <c r="F28" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="G28" t="s">
-        <v>194</v>
+        <v>195</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7D1F09FC-6C33-7040-8187-ED446CACE63F}">
+  <dimension ref="A1:D40"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F9" sqref="F9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="16.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="38.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.83203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="19.1640625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>379</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A2">
+        <v>94</v>
+      </c>
+      <c r="B2" t="s">
+        <v>125</v>
+      </c>
+      <c r="C2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A3">
+        <v>96</v>
+      </c>
+      <c r="B3" t="s">
+        <v>129</v>
+      </c>
+      <c r="C3" t="s">
+        <v>4</v>
+      </c>
+      <c r="D3" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A4">
+        <v>98</v>
+      </c>
+      <c r="B4" t="s">
+        <v>133</v>
+      </c>
+      <c r="C4" t="s">
+        <v>4</v>
+      </c>
+      <c r="D4" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A5">
+        <v>100</v>
+      </c>
+      <c r="B5" t="s">
+        <v>390</v>
+      </c>
+      <c r="C5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D5" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A6">
+        <v>102</v>
+      </c>
+      <c r="B6" t="s">
+        <v>135</v>
+      </c>
+      <c r="C6" t="s">
+        <v>4</v>
+      </c>
+      <c r="D6" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A7">
+        <v>103</v>
+      </c>
+      <c r="B7" t="s">
+        <v>137</v>
+      </c>
+      <c r="C7" t="s">
+        <v>4</v>
+      </c>
+      <c r="D7" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A8">
+        <v>105</v>
+      </c>
+      <c r="B8" t="s">
+        <v>383</v>
+      </c>
+      <c r="C8" t="s">
+        <v>4</v>
+      </c>
+      <c r="D8" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A9">
+        <v>108</v>
+      </c>
+      <c r="B9" t="s">
+        <v>376</v>
+      </c>
+      <c r="C9" t="s">
+        <v>6</v>
+      </c>
+      <c r="D9" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A10">
+        <v>112</v>
+      </c>
+      <c r="B10" t="s">
+        <v>387</v>
+      </c>
+      <c r="C10" t="s">
+        <v>6</v>
+      </c>
+      <c r="D10" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A11">
+        <v>114</v>
+      </c>
+      <c r="B11" t="s">
+        <v>139</v>
+      </c>
+      <c r="C11" t="s">
+        <v>4</v>
+      </c>
+      <c r="D11" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A12">
+        <v>116</v>
+      </c>
+      <c r="B12" t="s">
+        <v>372</v>
+      </c>
+      <c r="C12" t="s">
+        <v>4</v>
+      </c>
+      <c r="D12" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A13">
+        <v>117</v>
+      </c>
+      <c r="B13" t="s">
+        <v>373</v>
+      </c>
+      <c r="C13" t="s">
+        <v>4</v>
+      </c>
+      <c r="D13" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A14">
+        <v>124</v>
+      </c>
+      <c r="B14" t="s">
+        <v>382</v>
+      </c>
+      <c r="C14" t="s">
+        <v>24</v>
+      </c>
+      <c r="D14" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A15">
+        <v>144</v>
+      </c>
+      <c r="B15" t="s">
+        <v>362</v>
+      </c>
+      <c r="C15" t="s">
+        <v>6</v>
+      </c>
+      <c r="D15" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A16">
+        <v>145</v>
+      </c>
+      <c r="B16" t="s">
+        <v>363</v>
+      </c>
+      <c r="C16" t="s">
+        <v>6</v>
+      </c>
+      <c r="D16" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A17">
+        <v>199</v>
+      </c>
+      <c r="B17" t="s">
+        <v>358</v>
+      </c>
+      <c r="C17" t="s">
+        <v>4</v>
+      </c>
+      <c r="D17" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A18">
+        <v>222</v>
+      </c>
+      <c r="B18" t="s">
+        <v>369</v>
+      </c>
+      <c r="C18" t="s">
+        <v>4</v>
+      </c>
+      <c r="D18" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A19">
+        <v>222</v>
+      </c>
+      <c r="B19" t="s">
+        <v>369</v>
+      </c>
+      <c r="C19" t="s">
+        <v>4</v>
+      </c>
+      <c r="D19" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A20">
+        <v>226</v>
+      </c>
+      <c r="B20" t="s">
+        <v>384</v>
+      </c>
+      <c r="C20" t="s">
+        <v>6</v>
+      </c>
+      <c r="D20" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A21">
+        <v>230</v>
+      </c>
+      <c r="B21" t="s">
+        <v>388</v>
+      </c>
+      <c r="C21" t="s">
+        <v>4</v>
+      </c>
+      <c r="D21" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A22">
+        <v>236</v>
+      </c>
+      <c r="B22" t="s">
+        <v>381</v>
+      </c>
+      <c r="C22" t="s">
+        <v>4</v>
+      </c>
+      <c r="D22" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A23">
+        <v>285</v>
+      </c>
+      <c r="B23" t="s">
+        <v>377</v>
+      </c>
+      <c r="C23" t="s">
+        <v>4</v>
+      </c>
+      <c r="D23" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A24">
+        <v>297</v>
+      </c>
+      <c r="B24" t="s">
+        <v>386</v>
+      </c>
+      <c r="C24" t="s">
+        <v>24</v>
+      </c>
+      <c r="D24" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A25">
+        <v>333</v>
+      </c>
+      <c r="B25" t="s">
+        <v>378</v>
+      </c>
+      <c r="C25" t="s">
+        <v>4</v>
+      </c>
+      <c r="D25" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A26">
+        <v>337</v>
+      </c>
+      <c r="B26" t="s">
+        <v>364</v>
+      </c>
+      <c r="C26" t="s">
+        <v>4</v>
+      </c>
+      <c r="D26" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A27">
+        <v>437</v>
+      </c>
+      <c r="B27" t="s">
+        <v>366</v>
+      </c>
+      <c r="C27" t="s">
+        <v>4</v>
+      </c>
+      <c r="D27" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A28">
+        <v>450</v>
+      </c>
+      <c r="B28" t="s">
+        <v>356</v>
+      </c>
+      <c r="C28" t="s">
+        <v>4</v>
+      </c>
+      <c r="D28" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A29">
+        <v>450</v>
+      </c>
+      <c r="B29" t="s">
+        <v>356</v>
+      </c>
+      <c r="C29" t="s">
+        <v>4</v>
+      </c>
+      <c r="D29" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A30">
+        <v>543</v>
+      </c>
+      <c r="B30" t="s">
+        <v>385</v>
+      </c>
+      <c r="C30" t="s">
+        <v>6</v>
+      </c>
+      <c r="D30" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A31">
+        <v>617</v>
+      </c>
+      <c r="B31" t="s">
+        <v>365</v>
+      </c>
+      <c r="C31" t="s">
+        <v>6</v>
+      </c>
+      <c r="D31" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A32">
+        <v>652</v>
+      </c>
+      <c r="B32" t="s">
+        <v>392</v>
+      </c>
+      <c r="C32" t="s">
+        <v>4</v>
+      </c>
+      <c r="D32" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A33">
+        <v>701</v>
+      </c>
+      <c r="B33" t="s">
+        <v>361</v>
+      </c>
+      <c r="C33" t="s">
+        <v>4</v>
+      </c>
+      <c r="D33" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A34">
+        <v>701</v>
+      </c>
+      <c r="B34" t="s">
+        <v>361</v>
+      </c>
+      <c r="C34" t="s">
+        <v>4</v>
+      </c>
+      <c r="D34" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A35">
+        <v>863</v>
+      </c>
+      <c r="B35" t="s">
+        <v>360</v>
+      </c>
+      <c r="C35" t="s">
+        <v>4</v>
+      </c>
+      <c r="D35" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A36">
+        <v>872</v>
+      </c>
+      <c r="B36" t="s">
+        <v>368</v>
+      </c>
+      <c r="C36" t="s">
+        <v>6</v>
+      </c>
+      <c r="D36" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A37">
+        <v>938</v>
+      </c>
+      <c r="B37" t="s">
+        <v>367</v>
+      </c>
+      <c r="C37" t="s">
+        <v>6</v>
+      </c>
+      <c r="D37" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A38">
+        <v>1008</v>
+      </c>
+      <c r="B38" t="s">
+        <v>375</v>
+      </c>
+      <c r="C38" t="s">
+        <v>4</v>
+      </c>
+      <c r="D38" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A39">
+        <v>1038</v>
+      </c>
+      <c r="B39" t="s">
+        <v>374</v>
+      </c>
+      <c r="C39" t="s">
+        <v>4</v>
+      </c>
+      <c r="D39" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A40">
+        <v>1245</v>
+      </c>
+      <c r="B40" t="s">
+        <v>391</v>
+      </c>
+      <c r="C40" t="s">
+        <v>4</v>
+      </c>
+      <c r="D40" t="s">
+        <v>359</v>
+      </c>
+    </row>
+  </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D40">
+    <sortCondition ref="A1:A40"/>
+  </sortState>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{50C724DB-B837-404A-B108-B2D503478BE5}">
+  <dimension ref="A1:E33"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G9" sqref="G9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="19.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="40.83203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.83203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="19.1640625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>393</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>379</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>394</v>
+      </c>
+      <c r="B2">
+        <v>1</v>
+      </c>
+      <c r="C2" t="s">
+        <v>395</v>
+      </c>
+      <c r="D2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E2" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>394</v>
+      </c>
+      <c r="B3">
+        <v>238</v>
+      </c>
+      <c r="C3" t="s">
+        <v>346</v>
+      </c>
+      <c r="D3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E3" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>394</v>
+      </c>
+      <c r="B4">
+        <v>56</v>
+      </c>
+      <c r="C4" t="s">
+        <v>259</v>
+      </c>
+      <c r="D4" t="s">
+        <v>4</v>
+      </c>
+      <c r="E4" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>394</v>
+      </c>
+      <c r="B5">
+        <v>53</v>
+      </c>
+      <c r="C5" t="s">
+        <v>103</v>
+      </c>
+      <c r="D5" t="s">
+        <v>4</v>
+      </c>
+      <c r="E5" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>394</v>
+      </c>
+      <c r="B6">
+        <v>42</v>
+      </c>
+      <c r="C6" t="s">
+        <v>397</v>
+      </c>
+      <c r="D6" t="s">
+        <v>24</v>
+      </c>
+      <c r="E6" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>398</v>
+      </c>
+      <c r="B7">
+        <v>3</v>
+      </c>
+      <c r="C7" t="s">
+        <v>399</v>
+      </c>
+      <c r="D7" t="s">
+        <v>4</v>
+      </c>
+      <c r="E7" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>398</v>
+      </c>
+      <c r="B8">
+        <v>76</v>
+      </c>
+      <c r="C8" t="s">
+        <v>113</v>
+      </c>
+      <c r="D8" t="s">
+        <v>24</v>
+      </c>
+      <c r="E8" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>398</v>
+      </c>
+      <c r="B9">
+        <v>5</v>
+      </c>
+      <c r="C9" t="s">
+        <v>192</v>
+      </c>
+      <c r="D9" t="s">
+        <v>4</v>
+      </c>
+      <c r="E9" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>398</v>
+      </c>
+      <c r="B10">
+        <v>49</v>
+      </c>
+      <c r="C10" t="s">
+        <v>400</v>
+      </c>
+      <c r="D10" t="s">
+        <v>4</v>
+      </c>
+      <c r="E10" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>402</v>
+      </c>
+      <c r="B11">
+        <v>21</v>
+      </c>
+      <c r="C11" t="s">
+        <v>403</v>
+      </c>
+      <c r="D11" t="s">
+        <v>6</v>
+      </c>
+      <c r="E11" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>402</v>
+      </c>
+      <c r="B12">
+        <v>23</v>
+      </c>
+      <c r="C12" t="s">
+        <v>85</v>
+      </c>
+      <c r="D12" t="s">
+        <v>24</v>
+      </c>
+      <c r="E12" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>402</v>
+      </c>
+      <c r="B13">
+        <v>141</v>
+      </c>
+      <c r="C13" t="s">
+        <v>218</v>
+      </c>
+      <c r="D13" t="s">
+        <v>6</v>
+      </c>
+      <c r="E13" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>402</v>
+      </c>
+      <c r="B14">
+        <v>19</v>
+      </c>
+      <c r="C14" t="s">
+        <v>405</v>
+      </c>
+      <c r="D14" t="s">
+        <v>4</v>
+      </c>
+      <c r="E14" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>402</v>
+      </c>
+      <c r="B15">
+        <v>138</v>
+      </c>
+      <c r="C15" t="s">
+        <v>406</v>
+      </c>
+      <c r="D15" t="s">
+        <v>4</v>
+      </c>
+      <c r="E15" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>407</v>
+      </c>
+      <c r="B16">
+        <v>236</v>
+      </c>
+      <c r="C16" t="s">
+        <v>381</v>
+      </c>
+      <c r="D16" t="s">
+        <v>4</v>
+      </c>
+      <c r="E16" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>407</v>
+      </c>
+      <c r="B17">
+        <v>104</v>
+      </c>
+      <c r="C17" t="s">
+        <v>408</v>
+      </c>
+      <c r="D17" t="s">
+        <v>6</v>
+      </c>
+      <c r="E17" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>407</v>
+      </c>
+      <c r="B18">
+        <v>297</v>
+      </c>
+      <c r="C18" t="s">
+        <v>386</v>
+      </c>
+      <c r="D18" t="s">
+        <v>24</v>
+      </c>
+      <c r="E18" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>407</v>
+      </c>
+      <c r="B19">
+        <v>98</v>
+      </c>
+      <c r="C19" t="s">
+        <v>133</v>
+      </c>
+      <c r="D19" t="s">
+        <v>4</v>
+      </c>
+      <c r="E19" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
+        <v>409</v>
+      </c>
+      <c r="B20">
+        <v>207</v>
+      </c>
+      <c r="C20" t="s">
+        <v>410</v>
+      </c>
+      <c r="D20" t="s">
+        <v>4</v>
+      </c>
+      <c r="E20" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
+        <v>409</v>
+      </c>
+      <c r="B21">
+        <v>133</v>
+      </c>
+      <c r="C21" t="s">
+        <v>412</v>
+      </c>
+      <c r="D21" t="s">
+        <v>4</v>
+      </c>
+      <c r="E21" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
+        <v>409</v>
+      </c>
+      <c r="B22">
+        <v>200</v>
+      </c>
+      <c r="C22" t="s">
+        <v>149</v>
+      </c>
+      <c r="D22" t="s">
+        <v>4</v>
+      </c>
+      <c r="E22" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
+        <v>409</v>
+      </c>
+      <c r="B23">
+        <v>261</v>
+      </c>
+      <c r="C23" t="s">
+        <v>413</v>
+      </c>
+      <c r="D23" t="s">
+        <v>4</v>
+      </c>
+      <c r="E23" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A24" t="s">
+        <v>409</v>
+      </c>
+      <c r="B24">
+        <v>743</v>
+      </c>
+      <c r="C24" t="s">
+        <v>414</v>
+      </c>
+      <c r="D24" t="s">
+        <v>4</v>
+      </c>
+      <c r="E24" t="s">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A25" t="s">
+        <v>84</v>
+      </c>
+      <c r="B25">
+        <v>300</v>
+      </c>
+      <c r="C25" t="s">
+        <v>159</v>
+      </c>
+      <c r="D25" t="s">
+        <v>4</v>
+      </c>
+      <c r="E25" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A26" t="s">
+        <v>84</v>
+      </c>
+      <c r="B26">
+        <v>322</v>
+      </c>
+      <c r="C26" t="s">
+        <v>205</v>
+      </c>
+      <c r="D26" t="s">
+        <v>4</v>
+      </c>
+      <c r="E26" t="s">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A27" t="s">
+        <v>84</v>
+      </c>
+      <c r="B27">
+        <v>416</v>
+      </c>
+      <c r="C27" t="s">
+        <v>417</v>
+      </c>
+      <c r="D27" t="s">
+        <v>4</v>
+      </c>
+      <c r="E27" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A28" t="s">
+        <v>84</v>
+      </c>
+      <c r="B28">
+        <v>494</v>
+      </c>
+      <c r="C28" t="s">
+        <v>419</v>
+      </c>
+      <c r="D28" t="s">
+        <v>4</v>
+      </c>
+      <c r="E28" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A29" t="s">
+        <v>84</v>
+      </c>
+      <c r="B29">
+        <v>72</v>
+      </c>
+      <c r="C29" t="s">
+        <v>109</v>
+      </c>
+      <c r="D29" t="s">
+        <v>24</v>
+      </c>
+      <c r="E29" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A30" t="s">
+        <v>421</v>
+      </c>
+      <c r="B30">
+        <v>295</v>
+      </c>
+      <c r="C30" t="s">
+        <v>265</v>
+      </c>
+      <c r="D30" t="s">
+        <v>24</v>
+      </c>
+      <c r="E30" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A31" t="s">
+        <v>421</v>
+      </c>
+      <c r="B31">
+        <v>215</v>
+      </c>
+      <c r="C31" t="s">
+        <v>153</v>
+      </c>
+      <c r="D31" t="s">
+        <v>4</v>
+      </c>
+      <c r="E31" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A32" t="s">
+        <v>423</v>
+      </c>
+      <c r="B32">
+        <v>435</v>
+      </c>
+      <c r="C32" t="s">
+        <v>424</v>
+      </c>
+      <c r="D32" t="s">
+        <v>4</v>
+      </c>
+      <c r="E32" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A33" t="s">
+        <v>423</v>
+      </c>
+      <c r="B33">
+        <v>621</v>
+      </c>
+      <c r="C33" t="s">
+        <v>425</v>
+      </c>
+      <c r="D33" t="s">
+        <v>4</v>
+      </c>
+      <c r="E33" t="s">
+        <v>396</v>
       </c>
     </row>
   </sheetData>

--- a/src/leetcode_problems.xlsx
+++ b/src/leetcode_problems.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/h0o00s6/work/leetcode/src/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8EDAB119-D580-1D4B-BA5B-4A40DD28CA19}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6C07F151-3D20-A74F-96C6-8AC5F316A804}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="34560" windowHeight="21580" xr2:uid="{7C8CF537-9B1D-254F-B23F-05ED50214302}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="34560" windowHeight="21580" activeTab="3" xr2:uid="{7C8CF537-9B1D-254F-B23F-05ED50214302}"/>
   </bookViews>
   <sheets>
     <sheet name="Graph" sheetId="1" r:id="rId1"/>
@@ -1829,8 +1829,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{292B19E5-DA8E-9141-8777-62BE92ED20BF}">
   <dimension ref="A1:C71"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A41" workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+    <sheetView topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="A28" sqref="A27:A28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2127,7 +2127,7 @@
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A27" t="s">
+      <c r="A27" s="2" t="s">
         <v>31</v>
       </c>
       <c r="B27" t="s">
@@ -2138,7 +2138,7 @@
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A28" t="s">
+      <c r="A28" s="2" t="s">
         <v>32</v>
       </c>
       <c r="B28" t="s">
@@ -4156,8 +4156,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{807047B7-66E0-D149-B249-F5D23D268C46}">
   <dimension ref="A1:G26"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D47" sqref="D47"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -5424,7 +5424,7 @@
   <dimension ref="A1:G27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+      <selection activeCell="D44" sqref="D44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>

--- a/src/leetcode_problems.xlsx
+++ b/src/leetcode_problems.xlsx
@@ -8,24 +8,28 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/h0o00s6/work/leetcode/src/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6C07F151-3D20-A74F-96C6-8AC5F316A804}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5C84EB2F-B782-F145-98DB-B5EB8DA6A6B9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="34560" windowHeight="21580" activeTab="3" xr2:uid="{7C8CF537-9B1D-254F-B23F-05ED50214302}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="34560" windowHeight="21580" activeTab="1" xr2:uid="{7C8CF537-9B1D-254F-B23F-05ED50214302}"/>
   </bookViews>
   <sheets>
     <sheet name="Graph" sheetId="1" r:id="rId1"/>
-    <sheet name="HardProblems" sheetId="2" r:id="rId2"/>
-    <sheet name="BIT" sheetId="3" r:id="rId3"/>
-    <sheet name="DP" sheetId="4" r:id="rId4"/>
-    <sheet name="Greedy" sheetId="5" r:id="rId5"/>
-    <sheet name="2D Matrix" sheetId="6" r:id="rId6"/>
-    <sheet name="Arrays and String" sheetId="7" r:id="rId7"/>
-    <sheet name="Tree" sheetId="8" r:id="rId8"/>
-    <sheet name="Google" sheetId="9" r:id="rId9"/>
-    <sheet name="Facebook" sheetId="10" r:id="rId10"/>
-    <sheet name="Netflix" sheetId="11" r:id="rId11"/>
-    <sheet name="Amazon" sheetId="12" r:id="rId12"/>
+    <sheet name="Random" sheetId="14" r:id="rId2"/>
+    <sheet name="HardProblems" sheetId="2" r:id="rId3"/>
+    <sheet name="BIT" sheetId="3" r:id="rId4"/>
+    <sheet name="DP" sheetId="4" r:id="rId5"/>
+    <sheet name="Greedy" sheetId="5" r:id="rId6"/>
+    <sheet name="2D Matrix" sheetId="6" r:id="rId7"/>
+    <sheet name="Arrays and String" sheetId="7" r:id="rId8"/>
+    <sheet name="Tree" sheetId="8" r:id="rId9"/>
+    <sheet name="Google" sheetId="9" r:id="rId10"/>
+    <sheet name="Facebook" sheetId="10" r:id="rId11"/>
+    <sheet name="Netflix" sheetId="11" r:id="rId12"/>
+    <sheet name="Amazon" sheetId="12" r:id="rId13"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm.Print_Area" localSheetId="5">Greedy!$A$1:$G$58</definedName>
+  </definedNames>
   <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -47,7 +51,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1427" uniqueCount="449">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1429" uniqueCount="450">
   <si>
     <t>Problem Name</t>
   </si>
@@ -1434,6 +1438,9 @@
   </si>
   <si>
     <t>O(4^N)</t>
+  </si>
+  <si>
+    <t>Majority Element</t>
   </si>
 </sst>
 </file>
@@ -1829,8 +1836,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{292B19E5-DA8E-9141-8777-62BE92ED20BF}">
   <dimension ref="A1:C71"/>
   <sheetViews>
-    <sheetView topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="A28" sqref="A27:A28"/>
+    <sheetView topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="A73" sqref="A73"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2627,6 +2634,589 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{50C724DB-B837-404A-B108-B2D503478BE5}">
+  <dimension ref="A1:E33"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G9" sqref="G9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="19.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="40.83203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.83203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="19.1640625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>393</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>379</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>394</v>
+      </c>
+      <c r="B2">
+        <v>1</v>
+      </c>
+      <c r="C2" t="s">
+        <v>395</v>
+      </c>
+      <c r="D2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E2" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>394</v>
+      </c>
+      <c r="B3">
+        <v>238</v>
+      </c>
+      <c r="C3" t="s">
+        <v>346</v>
+      </c>
+      <c r="D3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E3" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>394</v>
+      </c>
+      <c r="B4">
+        <v>56</v>
+      </c>
+      <c r="C4" t="s">
+        <v>259</v>
+      </c>
+      <c r="D4" t="s">
+        <v>4</v>
+      </c>
+      <c r="E4" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>394</v>
+      </c>
+      <c r="B5">
+        <v>53</v>
+      </c>
+      <c r="C5" t="s">
+        <v>103</v>
+      </c>
+      <c r="D5" t="s">
+        <v>4</v>
+      </c>
+      <c r="E5" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>394</v>
+      </c>
+      <c r="B6">
+        <v>42</v>
+      </c>
+      <c r="C6" t="s">
+        <v>397</v>
+      </c>
+      <c r="D6" t="s">
+        <v>24</v>
+      </c>
+      <c r="E6" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>398</v>
+      </c>
+      <c r="B7">
+        <v>3</v>
+      </c>
+      <c r="C7" t="s">
+        <v>399</v>
+      </c>
+      <c r="D7" t="s">
+        <v>4</v>
+      </c>
+      <c r="E7" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>398</v>
+      </c>
+      <c r="B8">
+        <v>76</v>
+      </c>
+      <c r="C8" t="s">
+        <v>113</v>
+      </c>
+      <c r="D8" t="s">
+        <v>24</v>
+      </c>
+      <c r="E8" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>398</v>
+      </c>
+      <c r="B9">
+        <v>5</v>
+      </c>
+      <c r="C9" t="s">
+        <v>192</v>
+      </c>
+      <c r="D9" t="s">
+        <v>4</v>
+      </c>
+      <c r="E9" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>398</v>
+      </c>
+      <c r="B10">
+        <v>49</v>
+      </c>
+      <c r="C10" t="s">
+        <v>400</v>
+      </c>
+      <c r="D10" t="s">
+        <v>4</v>
+      </c>
+      <c r="E10" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>402</v>
+      </c>
+      <c r="B11">
+        <v>21</v>
+      </c>
+      <c r="C11" t="s">
+        <v>403</v>
+      </c>
+      <c r="D11" t="s">
+        <v>6</v>
+      </c>
+      <c r="E11" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>402</v>
+      </c>
+      <c r="B12">
+        <v>23</v>
+      </c>
+      <c r="C12" t="s">
+        <v>85</v>
+      </c>
+      <c r="D12" t="s">
+        <v>24</v>
+      </c>
+      <c r="E12" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>402</v>
+      </c>
+      <c r="B13">
+        <v>141</v>
+      </c>
+      <c r="C13" t="s">
+        <v>218</v>
+      </c>
+      <c r="D13" t="s">
+        <v>6</v>
+      </c>
+      <c r="E13" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>402</v>
+      </c>
+      <c r="B14">
+        <v>19</v>
+      </c>
+      <c r="C14" t="s">
+        <v>405</v>
+      </c>
+      <c r="D14" t="s">
+        <v>4</v>
+      </c>
+      <c r="E14" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>402</v>
+      </c>
+      <c r="B15">
+        <v>138</v>
+      </c>
+      <c r="C15" t="s">
+        <v>406</v>
+      </c>
+      <c r="D15" t="s">
+        <v>4</v>
+      </c>
+      <c r="E15" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>407</v>
+      </c>
+      <c r="B16">
+        <v>236</v>
+      </c>
+      <c r="C16" t="s">
+        <v>381</v>
+      </c>
+      <c r="D16" t="s">
+        <v>4</v>
+      </c>
+      <c r="E16" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>407</v>
+      </c>
+      <c r="B17">
+        <v>104</v>
+      </c>
+      <c r="C17" t="s">
+        <v>408</v>
+      </c>
+      <c r="D17" t="s">
+        <v>6</v>
+      </c>
+      <c r="E17" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>407</v>
+      </c>
+      <c r="B18">
+        <v>297</v>
+      </c>
+      <c r="C18" t="s">
+        <v>386</v>
+      </c>
+      <c r="D18" t="s">
+        <v>24</v>
+      </c>
+      <c r="E18" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>407</v>
+      </c>
+      <c r="B19">
+        <v>98</v>
+      </c>
+      <c r="C19" t="s">
+        <v>133</v>
+      </c>
+      <c r="D19" t="s">
+        <v>4</v>
+      </c>
+      <c r="E19" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
+        <v>409</v>
+      </c>
+      <c r="B20">
+        <v>207</v>
+      </c>
+      <c r="C20" t="s">
+        <v>410</v>
+      </c>
+      <c r="D20" t="s">
+        <v>4</v>
+      </c>
+      <c r="E20" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
+        <v>409</v>
+      </c>
+      <c r="B21">
+        <v>133</v>
+      </c>
+      <c r="C21" t="s">
+        <v>412</v>
+      </c>
+      <c r="D21" t="s">
+        <v>4</v>
+      </c>
+      <c r="E21" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
+        <v>409</v>
+      </c>
+      <c r="B22">
+        <v>200</v>
+      </c>
+      <c r="C22" t="s">
+        <v>149</v>
+      </c>
+      <c r="D22" t="s">
+        <v>4</v>
+      </c>
+      <c r="E22" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
+        <v>409</v>
+      </c>
+      <c r="B23">
+        <v>261</v>
+      </c>
+      <c r="C23" t="s">
+        <v>413</v>
+      </c>
+      <c r="D23" t="s">
+        <v>4</v>
+      </c>
+      <c r="E23" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A24" t="s">
+        <v>409</v>
+      </c>
+      <c r="B24">
+        <v>743</v>
+      </c>
+      <c r="C24" t="s">
+        <v>414</v>
+      </c>
+      <c r="D24" t="s">
+        <v>4</v>
+      </c>
+      <c r="E24" t="s">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A25" t="s">
+        <v>84</v>
+      </c>
+      <c r="B25">
+        <v>300</v>
+      </c>
+      <c r="C25" t="s">
+        <v>159</v>
+      </c>
+      <c r="D25" t="s">
+        <v>4</v>
+      </c>
+      <c r="E25" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A26" t="s">
+        <v>84</v>
+      </c>
+      <c r="B26">
+        <v>322</v>
+      </c>
+      <c r="C26" t="s">
+        <v>205</v>
+      </c>
+      <c r="D26" t="s">
+        <v>4</v>
+      </c>
+      <c r="E26" t="s">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A27" t="s">
+        <v>84</v>
+      </c>
+      <c r="B27">
+        <v>416</v>
+      </c>
+      <c r="C27" t="s">
+        <v>417</v>
+      </c>
+      <c r="D27" t="s">
+        <v>4</v>
+      </c>
+      <c r="E27" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A28" t="s">
+        <v>84</v>
+      </c>
+      <c r="B28">
+        <v>494</v>
+      </c>
+      <c r="C28" t="s">
+        <v>419</v>
+      </c>
+      <c r="D28" t="s">
+        <v>4</v>
+      </c>
+      <c r="E28" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A29" t="s">
+        <v>84</v>
+      </c>
+      <c r="B29">
+        <v>72</v>
+      </c>
+      <c r="C29" t="s">
+        <v>109</v>
+      </c>
+      <c r="D29" t="s">
+        <v>24</v>
+      </c>
+      <c r="E29" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A30" t="s">
+        <v>421</v>
+      </c>
+      <c r="B30">
+        <v>295</v>
+      </c>
+      <c r="C30" t="s">
+        <v>265</v>
+      </c>
+      <c r="D30" t="s">
+        <v>24</v>
+      </c>
+      <c r="E30" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A31" t="s">
+        <v>421</v>
+      </c>
+      <c r="B31">
+        <v>215</v>
+      </c>
+      <c r="C31" t="s">
+        <v>153</v>
+      </c>
+      <c r="D31" t="s">
+        <v>4</v>
+      </c>
+      <c r="E31" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A32" t="s">
+        <v>423</v>
+      </c>
+      <c r="B32">
+        <v>435</v>
+      </c>
+      <c r="C32" t="s">
+        <v>424</v>
+      </c>
+      <c r="D32" t="s">
+        <v>4</v>
+      </c>
+      <c r="E32" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A33" t="s">
+        <v>423</v>
+      </c>
+      <c r="B33">
+        <v>621</v>
+      </c>
+      <c r="C33" t="s">
+        <v>425</v>
+      </c>
+      <c r="D33" t="s">
+        <v>4</v>
+      </c>
+      <c r="E33" t="s">
+        <v>396</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D3576F43-4CAB-6F4B-8456-D00DFBCB1042}">
   <dimension ref="A1:D16"/>
   <sheetViews>
@@ -2865,7 +3455,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4D51C460-8A4B-1A47-A09B-903FD068359E}">
   <dimension ref="A1:D15"/>
   <sheetViews>
@@ -3096,7 +3686,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BF23F373-1BC0-6540-92FC-C48EAAA6037A}">
   <dimension ref="A1:D16"/>
   <sheetViews>
@@ -3342,11 +3932,39 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{19A17E99-6F74-3346-90D9-3214C5C58710}">
+  <dimension ref="A1:A2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="26.33203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>109</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{30E8AF9A-C7F7-7646-BD69-D5F95D7D3A65}">
   <dimension ref="A1:E42"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B44" sqref="B44"/>
+      <selection activeCell="C40" sqref="C40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3949,7 +4567,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5DF33DB5-80D5-7847-A62E-239DCA89700E}">
   <dimension ref="A1:D13"/>
   <sheetViews>
@@ -4152,12 +4770,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{807047B7-66E0-D149-B249-F5D23D268C46}">
   <dimension ref="A1:G26"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -4198,7 +4816,7 @@
       <c r="A2">
         <v>5</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="2" t="s">
         <v>192</v>
       </c>
       <c r="C2" t="s">
@@ -4221,7 +4839,7 @@
       <c r="A3">
         <v>10</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" s="2" t="s">
         <v>82</v>
       </c>
       <c r="C3" t="s">
@@ -4244,7 +4862,7 @@
       <c r="A4">
         <v>70</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B4" s="2" t="s">
         <v>197</v>
       </c>
       <c r="C4" t="s">
@@ -4267,22 +4885,22 @@
       <c r="A5">
         <v>91</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B5" s="2" t="s">
         <v>121</v>
       </c>
-      <c r="C5" t="s">
-        <v>80</v>
-      </c>
-      <c r="D5" t="s">
+      <c r="C5" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="D5" s="2" t="s">
         <v>122</v>
       </c>
-      <c r="E5" t="s">
-        <v>4</v>
-      </c>
-      <c r="F5" t="s">
-        <v>199</v>
-      </c>
-      <c r="G5" t="s">
+      <c r="E5" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>199</v>
+      </c>
+      <c r="G5" s="2" t="s">
         <v>195</v>
       </c>
     </row>
@@ -4290,7 +4908,7 @@
       <c r="A6">
         <v>114</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B6" s="2" t="s">
         <v>139</v>
       </c>
       <c r="C6" t="s">
@@ -4313,7 +4931,7 @@
       <c r="A7">
         <v>120</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B7" s="2" t="s">
         <v>141</v>
       </c>
       <c r="C7" t="s">
@@ -4336,7 +4954,7 @@
       <c r="A8">
         <v>152</v>
       </c>
-      <c r="B8" t="s">
+      <c r="B8" s="2" t="s">
         <v>147</v>
       </c>
       <c r="C8" t="s">
@@ -4359,7 +4977,7 @@
       <c r="A9">
         <v>198</v>
       </c>
-      <c r="B9" t="s">
+      <c r="B9" s="2" t="s">
         <v>200</v>
       </c>
       <c r="C9" t="s">
@@ -4382,7 +5000,7 @@
       <c r="A10">
         <v>213</v>
       </c>
-      <c r="B10" t="s">
+      <c r="B10" s="2" t="s">
         <v>202</v>
       </c>
       <c r="C10" t="s">
@@ -4405,7 +5023,7 @@
       <c r="A11">
         <v>300</v>
       </c>
-      <c r="B11" t="s">
+      <c r="B11" s="2" t="s">
         <v>159</v>
       </c>
       <c r="C11" t="s">
@@ -4451,7 +5069,7 @@
       <c r="A13">
         <v>322</v>
       </c>
-      <c r="B13" t="s">
+      <c r="B13" s="2" t="s">
         <v>205</v>
       </c>
       <c r="C13" t="s">
@@ -4635,7 +5253,7 @@
       <c r="A21">
         <v>63</v>
       </c>
-      <c r="B21" t="s">
+      <c r="B21" s="2" t="s">
         <v>107</v>
       </c>
       <c r="C21" t="s">
@@ -4658,7 +5276,7 @@
       <c r="A22">
         <v>139</v>
       </c>
-      <c r="B22" t="s">
+      <c r="B22" s="2" t="s">
         <v>143</v>
       </c>
       <c r="C22" t="s">
@@ -4750,7 +5368,7 @@
       <c r="A26">
         <v>64</v>
       </c>
-      <c r="B26" t="s">
+      <c r="B26" s="2" t="s">
         <v>216</v>
       </c>
       <c r="C26" t="s">
@@ -4774,12 +5392,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F4D62A7A-16B7-E54C-8DD8-73D73BF60C2E}">
   <dimension ref="A1:G27"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D48" sqref="D48"/>
+    <sheetView zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+      <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -4820,7 +5438,7 @@
       <c r="A2">
         <v>55</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="2" t="s">
         <v>223</v>
       </c>
       <c r="C2" t="s">
@@ -4843,7 +5461,7 @@
       <c r="A3">
         <v>45</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" s="2" t="s">
         <v>225</v>
       </c>
       <c r="C3" t="s">
@@ -4866,7 +5484,7 @@
       <c r="A4">
         <v>392</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B4" s="2" t="s">
         <v>227</v>
       </c>
       <c r="C4" t="s">
@@ -4889,7 +5507,7 @@
       <c r="A5">
         <v>135</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B5" s="2" t="s">
         <v>230</v>
       </c>
       <c r="C5" t="s">
@@ -5073,7 +5691,7 @@
       <c r="A13">
         <v>392</v>
       </c>
-      <c r="B13" t="s">
+      <c r="B13" s="2" t="s">
         <v>227</v>
       </c>
       <c r="C13" t="s">
@@ -5096,7 +5714,7 @@
       <c r="A14">
         <v>73</v>
       </c>
-      <c r="B14" t="s">
+      <c r="B14" s="2" t="s">
         <v>247</v>
       </c>
       <c r="C14" t="s">
@@ -5165,7 +5783,7 @@
       <c r="A17">
         <v>860</v>
       </c>
-      <c r="B17" t="s">
+      <c r="B17" s="2" t="s">
         <v>251</v>
       </c>
       <c r="C17" t="s">
@@ -5234,7 +5852,7 @@
       <c r="A20">
         <v>135</v>
       </c>
-      <c r="B20" t="s">
+      <c r="B20" s="2" t="s">
         <v>230</v>
       </c>
       <c r="C20" t="s">
@@ -5326,7 +5944,7 @@
       <c r="A24">
         <v>134</v>
       </c>
-      <c r="B24" t="s">
+      <c r="B24" s="2" t="s">
         <v>263</v>
       </c>
       <c r="C24" t="s">
@@ -5349,7 +5967,7 @@
       <c r="A25">
         <v>295</v>
       </c>
-      <c r="B25" t="s">
+      <c r="B25" s="2" t="s">
         <v>265</v>
       </c>
       <c r="C25" t="s">
@@ -5416,15 +6034,16 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{814F1C22-F9FA-C848-A3E6-CA100A0AD828}">
   <dimension ref="A1:G27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D44" sqref="D44"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -6064,7 +6683,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{44931935-14AB-AF46-91D4-8B3EC8F73E03}">
   <dimension ref="A1:G28"/>
   <sheetViews>
@@ -6732,7 +7351,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7D1F09FC-6C33-7040-8187-ED446CACE63F}">
   <dimension ref="A1:D40"/>
   <sheetViews>
@@ -7314,587 +7933,4 @@
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{50C724DB-B837-404A-B108-B2D503478BE5}">
-  <dimension ref="A1:E33"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G9" sqref="G9"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="19.33203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="16.33203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="40.83203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="8.83203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="19.1640625" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1" s="1" t="s">
-        <v>393</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>379</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>380</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
-        <v>394</v>
-      </c>
-      <c r="B2">
-        <v>1</v>
-      </c>
-      <c r="C2" t="s">
-        <v>395</v>
-      </c>
-      <c r="D2" t="s">
-        <v>6</v>
-      </c>
-      <c r="E2" t="s">
-        <v>359</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
-        <v>394</v>
-      </c>
-      <c r="B3">
-        <v>238</v>
-      </c>
-      <c r="C3" t="s">
-        <v>346</v>
-      </c>
-      <c r="D3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E3" t="s">
-        <v>359</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
-        <v>394</v>
-      </c>
-      <c r="B4">
-        <v>56</v>
-      </c>
-      <c r="C4" t="s">
-        <v>259</v>
-      </c>
-      <c r="D4" t="s">
-        <v>4</v>
-      </c>
-      <c r="E4" t="s">
-        <v>396</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
-        <v>394</v>
-      </c>
-      <c r="B5">
-        <v>53</v>
-      </c>
-      <c r="C5" t="s">
-        <v>103</v>
-      </c>
-      <c r="D5" t="s">
-        <v>4</v>
-      </c>
-      <c r="E5" t="s">
-        <v>359</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
-        <v>394</v>
-      </c>
-      <c r="B6">
-        <v>42</v>
-      </c>
-      <c r="C6" t="s">
-        <v>397</v>
-      </c>
-      <c r="D6" t="s">
-        <v>24</v>
-      </c>
-      <c r="E6" t="s">
-        <v>359</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A7" t="s">
-        <v>398</v>
-      </c>
-      <c r="B7">
-        <v>3</v>
-      </c>
-      <c r="C7" t="s">
-        <v>399</v>
-      </c>
-      <c r="D7" t="s">
-        <v>4</v>
-      </c>
-      <c r="E7" t="s">
-        <v>359</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A8" t="s">
-        <v>398</v>
-      </c>
-      <c r="B8">
-        <v>76</v>
-      </c>
-      <c r="C8" t="s">
-        <v>113</v>
-      </c>
-      <c r="D8" t="s">
-        <v>24</v>
-      </c>
-      <c r="E8" t="s">
-        <v>359</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A9" t="s">
-        <v>398</v>
-      </c>
-      <c r="B9">
-        <v>5</v>
-      </c>
-      <c r="C9" t="s">
-        <v>192</v>
-      </c>
-      <c r="D9" t="s">
-        <v>4</v>
-      </c>
-      <c r="E9" t="s">
-        <v>371</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A10" t="s">
-        <v>398</v>
-      </c>
-      <c r="B10">
-        <v>49</v>
-      </c>
-      <c r="C10" t="s">
-        <v>400</v>
-      </c>
-      <c r="D10" t="s">
-        <v>4</v>
-      </c>
-      <c r="E10" t="s">
-        <v>401</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A11" t="s">
-        <v>402</v>
-      </c>
-      <c r="B11">
-        <v>21</v>
-      </c>
-      <c r="C11" t="s">
-        <v>403</v>
-      </c>
-      <c r="D11" t="s">
-        <v>6</v>
-      </c>
-      <c r="E11" t="s">
-        <v>359</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A12" t="s">
-        <v>402</v>
-      </c>
-      <c r="B12">
-        <v>23</v>
-      </c>
-      <c r="C12" t="s">
-        <v>85</v>
-      </c>
-      <c r="D12" t="s">
-        <v>24</v>
-      </c>
-      <c r="E12" t="s">
-        <v>404</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A13" t="s">
-        <v>402</v>
-      </c>
-      <c r="B13">
-        <v>141</v>
-      </c>
-      <c r="C13" t="s">
-        <v>218</v>
-      </c>
-      <c r="D13" t="s">
-        <v>6</v>
-      </c>
-      <c r="E13" t="s">
-        <v>359</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A14" t="s">
-        <v>402</v>
-      </c>
-      <c r="B14">
-        <v>19</v>
-      </c>
-      <c r="C14" t="s">
-        <v>405</v>
-      </c>
-      <c r="D14" t="s">
-        <v>4</v>
-      </c>
-      <c r="E14" t="s">
-        <v>359</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A15" t="s">
-        <v>402</v>
-      </c>
-      <c r="B15">
-        <v>138</v>
-      </c>
-      <c r="C15" t="s">
-        <v>406</v>
-      </c>
-      <c r="D15" t="s">
-        <v>4</v>
-      </c>
-      <c r="E15" t="s">
-        <v>359</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A16" t="s">
-        <v>407</v>
-      </c>
-      <c r="B16">
-        <v>236</v>
-      </c>
-      <c r="C16" t="s">
-        <v>381</v>
-      </c>
-      <c r="D16" t="s">
-        <v>4</v>
-      </c>
-      <c r="E16" t="s">
-        <v>359</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A17" t="s">
-        <v>407</v>
-      </c>
-      <c r="B17">
-        <v>104</v>
-      </c>
-      <c r="C17" t="s">
-        <v>408</v>
-      </c>
-      <c r="D17" t="s">
-        <v>6</v>
-      </c>
-      <c r="E17" t="s">
-        <v>359</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A18" t="s">
-        <v>407</v>
-      </c>
-      <c r="B18">
-        <v>297</v>
-      </c>
-      <c r="C18" t="s">
-        <v>386</v>
-      </c>
-      <c r="D18" t="s">
-        <v>24</v>
-      </c>
-      <c r="E18" t="s">
-        <v>359</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A19" t="s">
-        <v>407</v>
-      </c>
-      <c r="B19">
-        <v>98</v>
-      </c>
-      <c r="C19" t="s">
-        <v>133</v>
-      </c>
-      <c r="D19" t="s">
-        <v>4</v>
-      </c>
-      <c r="E19" t="s">
-        <v>359</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A20" t="s">
-        <v>409</v>
-      </c>
-      <c r="B20">
-        <v>207</v>
-      </c>
-      <c r="C20" t="s">
-        <v>410</v>
-      </c>
-      <c r="D20" t="s">
-        <v>4</v>
-      </c>
-      <c r="E20" t="s">
-        <v>411</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A21" t="s">
-        <v>409</v>
-      </c>
-      <c r="B21">
-        <v>133</v>
-      </c>
-      <c r="C21" t="s">
-        <v>412</v>
-      </c>
-      <c r="D21" t="s">
-        <v>4</v>
-      </c>
-      <c r="E21" t="s">
-        <v>411</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A22" t="s">
-        <v>409</v>
-      </c>
-      <c r="B22">
-        <v>200</v>
-      </c>
-      <c r="C22" t="s">
-        <v>149</v>
-      </c>
-      <c r="D22" t="s">
-        <v>4</v>
-      </c>
-      <c r="E22" t="s">
-        <v>359</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A23" t="s">
-        <v>409</v>
-      </c>
-      <c r="B23">
-        <v>261</v>
-      </c>
-      <c r="C23" t="s">
-        <v>413</v>
-      </c>
-      <c r="D23" t="s">
-        <v>4</v>
-      </c>
-      <c r="E23" t="s">
-        <v>411</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A24" t="s">
-        <v>409</v>
-      </c>
-      <c r="B24">
-        <v>743</v>
-      </c>
-      <c r="C24" t="s">
-        <v>414</v>
-      </c>
-      <c r="D24" t="s">
-        <v>4</v>
-      </c>
-      <c r="E24" t="s">
-        <v>415</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A25" t="s">
-        <v>84</v>
-      </c>
-      <c r="B25">
-        <v>300</v>
-      </c>
-      <c r="C25" t="s">
-        <v>159</v>
-      </c>
-      <c r="D25" t="s">
-        <v>4</v>
-      </c>
-      <c r="E25" t="s">
-        <v>396</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A26" t="s">
-        <v>84</v>
-      </c>
-      <c r="B26">
-        <v>322</v>
-      </c>
-      <c r="C26" t="s">
-        <v>205</v>
-      </c>
-      <c r="D26" t="s">
-        <v>4</v>
-      </c>
-      <c r="E26" t="s">
-        <v>416</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A27" t="s">
-        <v>84</v>
-      </c>
-      <c r="B27">
-        <v>416</v>
-      </c>
-      <c r="C27" t="s">
-        <v>417</v>
-      </c>
-      <c r="D27" t="s">
-        <v>4</v>
-      </c>
-      <c r="E27" t="s">
-        <v>418</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A28" t="s">
-        <v>84</v>
-      </c>
-      <c r="B28">
-        <v>494</v>
-      </c>
-      <c r="C28" t="s">
-        <v>419</v>
-      </c>
-      <c r="D28" t="s">
-        <v>4</v>
-      </c>
-      <c r="E28" t="s">
-        <v>418</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A29" t="s">
-        <v>84</v>
-      </c>
-      <c r="B29">
-        <v>72</v>
-      </c>
-      <c r="C29" t="s">
-        <v>109</v>
-      </c>
-      <c r="D29" t="s">
-        <v>24</v>
-      </c>
-      <c r="E29" t="s">
-        <v>420</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A30" t="s">
-        <v>421</v>
-      </c>
-      <c r="B30">
-        <v>295</v>
-      </c>
-      <c r="C30" t="s">
-        <v>265</v>
-      </c>
-      <c r="D30" t="s">
-        <v>24</v>
-      </c>
-      <c r="E30" t="s">
-        <v>422</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A31" t="s">
-        <v>421</v>
-      </c>
-      <c r="B31">
-        <v>215</v>
-      </c>
-      <c r="C31" t="s">
-        <v>153</v>
-      </c>
-      <c r="D31" t="s">
-        <v>4</v>
-      </c>
-      <c r="E31" t="s">
-        <v>404</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A32" t="s">
-        <v>423</v>
-      </c>
-      <c r="B32">
-        <v>435</v>
-      </c>
-      <c r="C32" t="s">
-        <v>424</v>
-      </c>
-      <c r="D32" t="s">
-        <v>4</v>
-      </c>
-      <c r="E32" t="s">
-        <v>396</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A33" t="s">
-        <v>423</v>
-      </c>
-      <c r="B33">
-        <v>621</v>
-      </c>
-      <c r="C33" t="s">
-        <v>425</v>
-      </c>
-      <c r="D33" t="s">
-        <v>4</v>
-      </c>
-      <c r="E33" t="s">
-        <v>396</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>
--- a/src/leetcode_problems.xlsx
+++ b/src/leetcode_problems.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/h0o00s6/work/leetcode/src/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5C84EB2F-B782-F145-98DB-B5EB8DA6A6B9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{65C3AC50-E310-5242-8655-FF667DE4D23A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="34560" windowHeight="21580" activeTab="1" xr2:uid="{7C8CF537-9B1D-254F-B23F-05ED50214302}"/>
   </bookViews>
@@ -51,7 +51,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1429" uniqueCount="450">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1430" uniqueCount="451">
   <si>
     <t>Problem Name</t>
   </si>
@@ -1441,6 +1441,9 @@
   </si>
   <si>
     <t>Majority Element</t>
+  </si>
+  <si>
+    <t>Min Platform Needed</t>
   </si>
 </sst>
 </file>
@@ -3933,10 +3936,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{19A17E99-6F74-3346-90D9-3214C5C58710}">
-  <dimension ref="A1:A2"/>
+  <dimension ref="A1:A3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3952,6 +3955,11 @@
     <row r="2" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>109</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>450</v>
       </c>
     </row>
   </sheetData>
